--- a/Dataset/Index.xlsx
+++ b/Dataset/Index.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Index\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nebulae\GitHub\Genus-Compositicium\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B7A811-59B3-4522-AAA1-6E54295AC376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DAA428-EAFF-40C6-ACFC-2F329644465F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="465">
   <si>
     <t>AUSON. epigr.</t>
   </si>
@@ -1250,6 +1250,171 @@
   </si>
   <si>
     <t>Subgenre</t>
+  </si>
+  <si>
+    <t>APP. PUL.</t>
+  </si>
+  <si>
+    <t>Appius Claudius Pulcher</t>
+  </si>
+  <si>
+    <t>Fragmenta ex auguralis disciplinae libris (= GRF Funaioli, pp. 426-427)</t>
+  </si>
+  <si>
+    <t>CARM.</t>
+  </si>
+  <si>
+    <t>Carmina aut carminum fragmenta adespota praeter scaenica (= CIC. de orat. 3, 167)</t>
+  </si>
+  <si>
+    <t>PLAUT. Truc.</t>
+  </si>
+  <si>
+    <t>T. Maccius Plautus</t>
+  </si>
+  <si>
+    <t>Truculentus</t>
+  </si>
+  <si>
+    <t>PLAUT. Amph.</t>
+  </si>
+  <si>
+    <t>Amphitruo</t>
+  </si>
+  <si>
+    <t>PLAUT. Asin.</t>
+  </si>
+  <si>
+    <t>Asinaria</t>
+  </si>
+  <si>
+    <t>PLAUT. Aul.</t>
+  </si>
+  <si>
+    <t>Aulularia</t>
+  </si>
+  <si>
+    <t>PLAUT. Bacch.</t>
+  </si>
+  <si>
+    <t>Bacchides</t>
+  </si>
+  <si>
+    <t>PLAUT. Capt.</t>
+  </si>
+  <si>
+    <t>Captivi</t>
+  </si>
+  <si>
+    <t>PLAUT. Cas.</t>
+  </si>
+  <si>
+    <t>Casina</t>
+  </si>
+  <si>
+    <t>PLAUT. Cist.</t>
+  </si>
+  <si>
+    <t>Cistellaria</t>
+  </si>
+  <si>
+    <t>PLAUT. Curc.</t>
+  </si>
+  <si>
+    <t>Curculio</t>
+  </si>
+  <si>
+    <t>PLAUT. Epid.</t>
+  </si>
+  <si>
+    <t>Epidicus</t>
+  </si>
+  <si>
+    <t>PLAUT. frg.</t>
+  </si>
+  <si>
+    <t>Fabularum fragmenta</t>
+  </si>
+  <si>
+    <t>PLAUT. Men.</t>
+  </si>
+  <si>
+    <t>Menaechmi</t>
+  </si>
+  <si>
+    <t>PLAUT. Merc.</t>
+  </si>
+  <si>
+    <t>Mercator</t>
+  </si>
+  <si>
+    <t>PLAUT. Mil.</t>
+  </si>
+  <si>
+    <t>Miles gloriosus</t>
+  </si>
+  <si>
+    <t>PLAUT. Most.</t>
+  </si>
+  <si>
+    <t>Mostellaria</t>
+  </si>
+  <si>
+    <t>PLAUT. Pers.</t>
+  </si>
+  <si>
+    <t>Persa</t>
+  </si>
+  <si>
+    <t>PLAUT. Poen.</t>
+  </si>
+  <si>
+    <t>Poenulus</t>
+  </si>
+  <si>
+    <t>PLAUT. Pseud.</t>
+  </si>
+  <si>
+    <t>Pseudolus</t>
+  </si>
+  <si>
+    <t>PLAUT. Rud.</t>
+  </si>
+  <si>
+    <t>Rudens</t>
+  </si>
+  <si>
+    <t>PLAUT. Stich.</t>
+  </si>
+  <si>
+    <t>Stichus</t>
+  </si>
+  <si>
+    <t>PLAUT. Trin.</t>
+  </si>
+  <si>
+    <t>Trinummus</t>
+  </si>
+  <si>
+    <t>ORAT. FRG.</t>
+  </si>
+  <si>
+    <t>Incerti auctores</t>
+  </si>
+  <si>
+    <t>Fragmenta oratoria</t>
+  </si>
+  <si>
+    <t>COM. tog. inc.</t>
+  </si>
+  <si>
+    <t>Comoediae togatae poetarum incertorum fragmenta</t>
+  </si>
+  <si>
+    <t>TRAG. inc.</t>
+  </si>
+  <si>
+    <t>Incertorum fragmenta tragica</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1775,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G174"/>
+  <dimension ref="A1:G200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1768,19 +1933,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>410</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>411</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>70</v>
+        <v>412</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
@@ -1791,7 +1956,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>46</v>
@@ -1803,7 +1968,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>13</v>
@@ -1814,7 +1979,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>46</v>
@@ -1826,18 +1991,18 @@
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>46</v>
@@ -1849,18 +2014,18 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>46</v>
@@ -1872,7 +2037,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>13</v>
@@ -1883,7 +2048,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>46</v>
@@ -1895,7 +2060,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
@@ -1906,33 +2071,33 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1">
         <v>-2</v>
@@ -1941,7 +2106,7 @@
         <v>-1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>3</v>
@@ -1952,30 +2117,30 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D15" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>28</v>
@@ -1987,7 +2152,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>13</v>
@@ -1998,30 +2163,30 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
       </c>
       <c r="D17" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1</v>
@@ -2033,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>3</v>
@@ -2044,7 +2209,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -2056,7 +2221,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>3</v>
@@ -2067,7 +2232,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1</v>
@@ -2079,7 +2244,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>3</v>
@@ -2090,7 +2255,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>1</v>
@@ -2102,7 +2267,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>3</v>
@@ -2113,7 +2278,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>1</v>
@@ -2125,7 +2290,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>3</v>
@@ -2136,7 +2301,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -2148,7 +2313,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>3</v>
@@ -2159,7 +2324,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>1</v>
@@ -2171,7 +2336,7 @@
         <v>4</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>3</v>
@@ -2182,7 +2347,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>1</v>
@@ -2194,7 +2359,7 @@
         <v>4</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>3</v>
@@ -2205,7 +2370,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>1</v>
@@ -2217,18 +2382,18 @@
         <v>4</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1</v>
@@ -2240,18 +2405,18 @@
         <v>4</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>1</v>
@@ -2263,7 +2428,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>3</v>
@@ -2274,7 +2439,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>1</v>
@@ -2286,7 +2451,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>3</v>
@@ -2297,7 +2462,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>1</v>
@@ -2309,7 +2474,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>3</v>
@@ -2320,7 +2485,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>1</v>
@@ -2332,7 +2497,7 @@
         <v>4</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>3</v>
@@ -2343,7 +2508,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>1</v>
@@ -2355,7 +2520,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>3</v>
@@ -2366,7 +2531,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>1</v>
@@ -2378,7 +2543,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>3</v>
@@ -2389,7 +2554,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>1</v>
@@ -2401,7 +2566,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>3</v>
@@ -2412,30 +2577,30 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>142</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D35" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>142</v>
@@ -2447,7 +2612,7 @@
         <v>-1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>13</v>
@@ -2458,7 +2623,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>142</v>
@@ -2470,7 +2635,7 @@
         <v>-1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
@@ -2481,53 +2646,53 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C38" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D38" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C39" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D39" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>137</v>
@@ -2539,7 +2704,7 @@
         <v>-1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>13</v>
@@ -2550,19 +2715,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C41" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D41" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>13</v>
@@ -2573,42 +2738,42 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C42" s="1">
         <v>-2</v>
       </c>
       <c r="D42" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>122</v>
+        <v>413</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C43" s="1">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D43" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>124</v>
+        <v>414</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -2619,53 +2784,53 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="C44" s="1">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D44" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C45" s="1">
         <v>-3</v>
       </c>
       <c r="D45" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>132</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>113</v>
@@ -2677,18 +2842,18 @@
         <v>-2</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>135</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>113</v>
@@ -2700,18 +2865,18 @@
         <v>-2</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>113</v>
@@ -2723,76 +2888,76 @@
         <v>-2</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C49" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D49" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C50" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D50" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C51" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D51" s="1">
         <v>-1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>3</v>
@@ -2803,19 +2968,19 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C52" s="1">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D52" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>3</v>
@@ -2826,19 +2991,19 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C53" s="1">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D53" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>3</v>
@@ -2849,7 +3014,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>78</v>
@@ -2861,7 +3026,7 @@
         <v>5</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>3</v>
@@ -2872,7 +3037,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>78</v>
@@ -2884,7 +3049,7 @@
         <v>5</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>3</v>
@@ -2895,7 +3060,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>78</v>
@@ -2907,7 +3072,7 @@
         <v>5</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>3</v>
@@ -2918,7 +3083,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>78</v>
@@ -2930,7 +3095,7 @@
         <v>5</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>3</v>
@@ -2941,7 +3106,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>78</v>
@@ -2953,7 +3118,7 @@
         <v>5</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>3</v>
@@ -2964,7 +3129,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>78</v>
@@ -2976,7 +3141,7 @@
         <v>5</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>3</v>
@@ -2987,7 +3152,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>78</v>
@@ -2999,7 +3164,7 @@
         <v>5</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>3</v>
@@ -3010,7 +3175,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>78</v>
@@ -3022,7 +3187,7 @@
         <v>5</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>3</v>
@@ -3033,7 +3198,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>78</v>
@@ -3045,7 +3210,7 @@
         <v>5</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>3</v>
@@ -3056,7 +3221,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>78</v>
@@ -3068,7 +3233,7 @@
         <v>5</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>3</v>
@@ -3079,7 +3244,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>78</v>
@@ -3091,7 +3256,7 @@
         <v>5</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>3</v>
@@ -3102,7 +3267,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>78</v>
@@ -3114,7 +3279,7 @@
         <v>5</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>3</v>
@@ -3125,7 +3290,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>250</v>
+        <v>94</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>78</v>
@@ -3137,7 +3302,7 @@
         <v>5</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>251</v>
+        <v>95</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>3</v>
@@ -3148,42 +3313,42 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="C67" s="1">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="D67" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>248</v>
+        <v>78</v>
       </c>
       <c r="C68" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D68" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>3</v>
@@ -3194,65 +3359,65 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C69" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D69" s="1">
         <v>-1</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>245</v>
+        <v>461</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C70" s="1">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D70" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>121</v>
+        <v>462</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C71" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D71" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>3</v>
@@ -3263,19 +3428,19 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C72" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D72" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>3</v>
@@ -3286,7 +3451,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>246</v>
@@ -3298,18 +3463,18 @@
         <v>-2</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>262</v>
+        <v>121</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>246</v>
@@ -3321,7 +3486,7 @@
         <v>-2</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>3</v>
@@ -3332,111 +3497,111 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>325</v>
+        <v>259</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>326</v>
+        <v>246</v>
       </c>
       <c r="C75" s="1">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="D75" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>327</v>
+        <v>260</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C76" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D76" s="1">
         <v>-2</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C77" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="D77" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>211</v>
+        <v>325</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>212</v>
+        <v>326</v>
       </c>
       <c r="C78" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D78" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>213</v>
+        <v>327</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>328</v>
+        <v>256</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>329</v>
+        <v>257</v>
       </c>
       <c r="C79" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D79" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>3</v>
@@ -3447,19 +3612,19 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>330</v>
+        <v>252</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>331</v>
+        <v>253</v>
       </c>
       <c r="C80" s="1">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D80" s="1">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>3</v>
@@ -3470,42 +3635,42 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>330</v>
+        <v>211</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>331</v>
+        <v>212</v>
       </c>
       <c r="C81" s="1">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D81" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>57</v>
+        <v>213</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>218</v>
+        <v>328</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="C82" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D82" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>3</v>
@@ -3516,19 +3681,19 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C83" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D83" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>262</v>
+        <v>43</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>3</v>
@@ -3539,19 +3704,19 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C84" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D84" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>336</v>
+        <v>57</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>3</v>
@@ -3562,65 +3727,65 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>337</v>
+        <v>218</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>338</v>
+        <v>219</v>
       </c>
       <c r="C85" s="1">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D85" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>339</v>
+        <v>220</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>217</v>
+        <v>332</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>215</v>
+        <v>333</v>
       </c>
       <c r="C86" s="1">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="D86" s="1">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>111</v>
+        <v>262</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>214</v>
+        <v>334</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>215</v>
+        <v>335</v>
       </c>
       <c r="C87" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D87" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>216</v>
+        <v>336</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>3</v>
@@ -3631,30 +3796,30 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>237</v>
+        <v>337</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>215</v>
+        <v>338</v>
       </c>
       <c r="C88" s="1">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="D88" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>238</v>
+        <v>339</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>215</v>
@@ -3666,53 +3831,53 @@
         <v>5</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C90" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>340</v>
+        <v>237</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>341</v>
+        <v>215</v>
       </c>
       <c r="C91" s="1">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="D91" s="1">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>342</v>
+        <v>238</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>3</v>
@@ -3723,249 +3888,249 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>341</v>
+        <v>215</v>
       </c>
       <c r="C92" s="1">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="D92" s="1">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>43</v>
+        <v>228</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>344</v>
+        <v>229</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>341</v>
+        <v>230</v>
       </c>
       <c r="C93" s="1">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="D93" s="1">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>57</v>
+        <v>231</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>234</v>
+        <v>340</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>235</v>
+        <v>341</v>
       </c>
       <c r="C94" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D94" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>236</v>
+        <v>342</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C95" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D95" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>347</v>
+        <v>43</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C96" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D96" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>350</v>
+        <v>57</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>351</v>
+        <v>234</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>352</v>
+        <v>235</v>
       </c>
       <c r="C97" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D97" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>57</v>
+        <v>236</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>208</v>
+        <v>345</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>209</v>
+        <v>346</v>
       </c>
       <c r="C98" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D98" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>210</v>
+        <v>347</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>224</v>
+        <v>348</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>225</v>
+        <v>349</v>
       </c>
       <c r="C99" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D99" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>226</v>
+        <v>350</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>232</v>
+        <v>458</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>222</v>
+        <v>459</v>
       </c>
       <c r="C100" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D100" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>233</v>
+        <v>460</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>221</v>
+        <v>351</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>222</v>
+        <v>352</v>
       </c>
       <c r="C101" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="D101" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>223</v>
+        <v>57</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>353</v>
+        <v>208</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>354</v>
+        <v>209</v>
       </c>
       <c r="C102" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D102" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>355</v>
+        <v>210</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>3</v>
@@ -3976,203 +4141,203 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c r="C103" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D103" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>188</v>
+        <v>418</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>181</v>
+        <v>416</v>
       </c>
       <c r="C104" s="1">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="D104" s="1">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>189</v>
+        <v>419</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>180</v>
+        <v>420</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>181</v>
+        <v>416</v>
       </c>
       <c r="C105" s="1">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="D105" s="1">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>182</v>
+        <v>421</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>204</v>
+        <v>422</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>181</v>
+        <v>416</v>
       </c>
       <c r="C106" s="1">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="D106" s="1">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>205</v>
+        <v>423</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>202</v>
+        <v>424</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>181</v>
+        <v>416</v>
       </c>
       <c r="C107" s="1">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="D107" s="1">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>203</v>
+        <v>425</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>206</v>
+        <v>426</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>181</v>
+        <v>416</v>
       </c>
       <c r="C108" s="1">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="D108" s="1">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>207</v>
+        <v>427</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>183</v>
+        <v>428</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>181</v>
+        <v>416</v>
       </c>
       <c r="C109" s="1">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="D109" s="1">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>184</v>
+        <v>429</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>194</v>
+        <v>430</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>181</v>
+        <v>416</v>
       </c>
       <c r="C110" s="1">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="D110" s="1">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>184</v>
+        <v>431</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>356</v>
+        <v>432</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>357</v>
+        <v>416</v>
       </c>
       <c r="C111" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D111" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>358</v>
+        <v>433</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>3</v>
@@ -4183,19 +4348,19 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>359</v>
+        <v>434</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>357</v>
+        <v>416</v>
       </c>
       <c r="C112" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D112" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>360</v>
+        <v>435</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>3</v>
@@ -4206,286 +4371,286 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>361</v>
+        <v>436</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="C113" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D113" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>365</v>
+        <v>416</v>
       </c>
       <c r="C114" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D114" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>121</v>
+        <v>439</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>383</v>
+        <v>440</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>384</v>
+        <v>416</v>
       </c>
       <c r="C115" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D115" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>385</v>
+        <v>441</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>388</v>
+        <v>442</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>384</v>
+        <v>416</v>
       </c>
       <c r="C116" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D116" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>389</v>
+        <v>443</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>386</v>
+        <v>444</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>384</v>
+        <v>416</v>
       </c>
       <c r="C117" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D117" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>387</v>
+        <v>445</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>200</v>
+        <v>446</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>201</v>
+        <v>416</v>
       </c>
       <c r="C118" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D118" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>118</v>
+        <v>447</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>195</v>
+        <v>448</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>196</v>
+        <v>416</v>
       </c>
       <c r="C119" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="D119" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>197</v>
+        <v>449</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>366</v>
+        <v>450</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>367</v>
+        <v>416</v>
       </c>
       <c r="C120" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D120" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>164</v>
+        <v>451</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>198</v>
+        <v>452</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>186</v>
+        <v>416</v>
       </c>
       <c r="C121" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="D121" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>199</v>
+        <v>453</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>192</v>
+        <v>454</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>186</v>
+        <v>416</v>
       </c>
       <c r="C122" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="D122" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>193</v>
+        <v>455</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>185</v>
+        <v>456</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>186</v>
+        <v>416</v>
       </c>
       <c r="C123" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="D123" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>187</v>
+        <v>457</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>171</v>
+        <v>415</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>172</v>
+        <v>416</v>
       </c>
       <c r="C124" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D124" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>173</v>
+        <v>417</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>163</v>
+        <v>222</v>
       </c>
       <c r="C125" s="1">
         <v>1</v>
@@ -4494,21 +4659,21 @@
         <v>2</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>163</v>
+        <v>222</v>
       </c>
       <c r="C126" s="1">
         <v>1</v>
@@ -4517,800 +4682,800 @@
         <v>2</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>169</v>
+        <v>353</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>163</v>
+        <v>354</v>
       </c>
       <c r="C127" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D127" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="C128" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D128" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="C129" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D129" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>390</v>
+        <v>180</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>391</v>
+        <v>181</v>
       </c>
       <c r="C130" s="1">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="D130" s="1">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>392</v>
+        <v>182</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>393</v>
+        <v>204</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>391</v>
+        <v>181</v>
       </c>
       <c r="C131" s="1">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="D131" s="1">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>394</v>
+        <v>205</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>395</v>
+        <v>202</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>391</v>
+        <v>181</v>
       </c>
       <c r="C132" s="1">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="D132" s="1">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>396</v>
+        <v>203</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>397</v>
+        <v>206</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>391</v>
+        <v>181</v>
       </c>
       <c r="C133" s="1">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="D133" s="1">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>398</v>
+        <v>207</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>399</v>
+        <v>183</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>391</v>
+        <v>181</v>
       </c>
       <c r="C134" s="1">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="D134" s="1">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>400</v>
+        <v>184</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>401</v>
+        <v>194</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>391</v>
+        <v>181</v>
       </c>
       <c r="C135" s="1">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="D135" s="1">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>402</v>
+        <v>184</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>157</v>
+        <v>356</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>158</v>
+        <v>357</v>
       </c>
       <c r="C136" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D136" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>159</v>
+        <v>358</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>165</v>
+        <v>359</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>158</v>
+        <v>357</v>
       </c>
       <c r="C137" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D137" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>166</v>
+        <v>360</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>160</v>
+        <v>361</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>158</v>
+        <v>362</v>
       </c>
       <c r="C138" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D138" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>161</v>
+        <v>363</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>178</v>
+        <v>364</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>158</v>
+        <v>365</v>
       </c>
       <c r="C139" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D139" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>314</v>
+        <v>383</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="C140" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D140" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>315</v>
+        <v>385</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>316</v>
+        <v>388</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="C141" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D141" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>317</v>
+        <v>389</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>312</v>
+        <v>386</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="C142" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D142" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>313</v>
+        <v>387</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>302</v>
+        <v>200</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="C143" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D143" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>303</v>
+        <v>118</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>306</v>
+        <v>195</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="C144" s="1">
+        <v>1</v>
+      </c>
+      <c r="D144" s="1">
         <v>2</v>
       </c>
-      <c r="D144" s="1">
-        <v>3</v>
-      </c>
       <c r="E144" s="1" t="s">
-        <v>307</v>
+        <v>197</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>308</v>
+        <v>366</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>158</v>
+        <v>367</v>
       </c>
       <c r="C145" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D145" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>309</v>
+        <v>164</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="C146" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>305</v>
+        <v>199</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>318</v>
+        <v>192</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="C147" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D147" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>319</v>
+        <v>193</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>310</v>
+        <v>185</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="C148" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D148" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>311</v>
+        <v>187</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>320</v>
+        <v>171</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C149" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D149" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>321</v>
+        <v>173</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>292</v>
+        <v>174</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C150" s="1">
+        <v>1</v>
+      </c>
+      <c r="D150" s="1">
         <v>2</v>
       </c>
-      <c r="D150" s="1">
-        <v>3</v>
-      </c>
       <c r="E150" s="1" t="s">
-        <v>293</v>
+        <v>175</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>296</v>
+        <v>176</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C151" s="1">
+        <v>1</v>
+      </c>
+      <c r="D151" s="1">
         <v>2</v>
       </c>
-      <c r="D151" s="1">
-        <v>3</v>
-      </c>
       <c r="E151" s="1" t="s">
-        <v>297</v>
+        <v>177</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>294</v>
+        <v>169</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C152" s="1">
+        <v>1</v>
+      </c>
+      <c r="D152" s="1">
         <v>2</v>
       </c>
-      <c r="D152" s="1">
-        <v>3</v>
-      </c>
       <c r="E152" s="1" t="s">
-        <v>295</v>
+        <v>170</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>298</v>
+        <v>167</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C153" s="1">
+        <v>1</v>
+      </c>
+      <c r="D153" s="1">
         <v>2</v>
       </c>
-      <c r="D153" s="1">
-        <v>3</v>
-      </c>
       <c r="E153" s="1" t="s">
-        <v>299</v>
+        <v>168</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>290</v>
+        <v>162</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C154" s="1">
+        <v>1</v>
+      </c>
+      <c r="D154" s="1">
         <v>2</v>
       </c>
-      <c r="D154" s="1">
-        <v>3</v>
-      </c>
       <c r="E154" s="1" t="s">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>284</v>
+        <v>390</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>158</v>
+        <v>391</v>
       </c>
       <c r="C155" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D155" s="1">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>288</v>
+        <v>393</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>158</v>
+        <v>391</v>
       </c>
       <c r="C156" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D156" s="1">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>289</v>
+        <v>394</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>282</v>
+        <v>395</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>158</v>
+        <v>391</v>
       </c>
       <c r="C157" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D157" s="1">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>283</v>
+        <v>396</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>286</v>
+        <v>397</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>158</v>
+        <v>391</v>
       </c>
       <c r="C158" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D158" s="1">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>287</v>
+        <v>398</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>300</v>
+        <v>399</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>158</v>
+        <v>391</v>
       </c>
       <c r="C159" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D159" s="1">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>301</v>
+        <v>400</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>278</v>
+        <v>401</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>158</v>
+        <v>391</v>
       </c>
       <c r="C160" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D160" s="1">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>279</v>
+        <v>402</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>276</v>
+        <v>157</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>158</v>
@@ -5322,7 +5487,7 @@
         <v>3</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>277</v>
+        <v>159</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>13</v>
@@ -5333,7 +5498,7 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>280</v>
+        <v>165</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>158</v>
@@ -5345,7 +5510,7 @@
         <v>3</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>281</v>
+        <v>166</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>13</v>
@@ -5356,7 +5521,7 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>265</v>
+        <v>160</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>158</v>
@@ -5368,7 +5533,7 @@
         <v>3</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>266</v>
+        <v>161</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>13</v>
@@ -5379,7 +5544,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>269</v>
+        <v>178</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>158</v>
@@ -5391,7 +5556,7 @@
         <v>3</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>270</v>
+        <v>179</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>13</v>
@@ -5402,7 +5567,7 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>158</v>
@@ -5414,7 +5579,7 @@
         <v>3</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>268</v>
+        <v>315</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>13</v>
@@ -5425,7 +5590,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>158</v>
@@ -5437,7 +5602,7 @@
         <v>3</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>272</v>
+        <v>317</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>13</v>
@@ -5448,191 +5613,789 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>380</v>
+        <v>312</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>381</v>
+        <v>158</v>
       </c>
       <c r="C167" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D167" s="1">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>382</v>
+        <v>313</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>368</v>
+        <v>302</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>369</v>
+        <v>158</v>
       </c>
       <c r="C168" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D168" s="1">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>370</v>
+        <v>303</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>274</v>
+        <v>158</v>
       </c>
       <c r="C169" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>371</v>
+        <v>308</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>372</v>
+        <v>158</v>
       </c>
       <c r="C170" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D170" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>373</v>
+        <v>304</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>374</v>
+        <v>158</v>
       </c>
       <c r="C171" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D171" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>323</v>
+        <v>158</v>
       </c>
       <c r="C172" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D172" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>378</v>
+        <v>310</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>323</v>
+        <v>158</v>
       </c>
       <c r="C173" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D173" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>379</v>
+        <v>311</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C174" s="1">
+        <v>2</v>
+      </c>
+      <c r="D174" s="1">
+        <v>3</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C175" s="1">
+        <v>2</v>
+      </c>
+      <c r="D175" s="1">
+        <v>3</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C176" s="1">
+        <v>2</v>
+      </c>
+      <c r="D176" s="1">
+        <v>3</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C177" s="1">
+        <v>2</v>
+      </c>
+      <c r="D177" s="1">
+        <v>3</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C178" s="1">
+        <v>2</v>
+      </c>
+      <c r="D178" s="1">
+        <v>3</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C179" s="1">
+        <v>2</v>
+      </c>
+      <c r="D179" s="1">
+        <v>3</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C180" s="1">
+        <v>2</v>
+      </c>
+      <c r="D180" s="1">
+        <v>3</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C181" s="1">
+        <v>2</v>
+      </c>
+      <c r="D181" s="1">
+        <v>3</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C182" s="1">
+        <v>2</v>
+      </c>
+      <c r="D182" s="1">
+        <v>3</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C183" s="1">
+        <v>2</v>
+      </c>
+      <c r="D183" s="1">
+        <v>3</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C184" s="1">
+        <v>2</v>
+      </c>
+      <c r="D184" s="1">
+        <v>3</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C185" s="1">
+        <v>2</v>
+      </c>
+      <c r="D185" s="1">
+        <v>3</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C186" s="1">
+        <v>2</v>
+      </c>
+      <c r="D186" s="1">
+        <v>3</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C187" s="1">
+        <v>2</v>
+      </c>
+      <c r="D187" s="1">
+        <v>3</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C188" s="1">
+        <v>2</v>
+      </c>
+      <c r="D188" s="1">
+        <v>3</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C189" s="1">
+        <v>2</v>
+      </c>
+      <c r="D189" s="1">
+        <v>3</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C190" s="1">
+        <v>2</v>
+      </c>
+      <c r="D190" s="1">
+        <v>3</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C191" s="1">
+        <v>2</v>
+      </c>
+      <c r="D191" s="1">
+        <v>3</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C192" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D192" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C193" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D193" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C194" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D194" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C195" s="1">
+        <v>1</v>
+      </c>
+      <c r="D195" s="1">
+        <v>1</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C196" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D196" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C197" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D197" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C198" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D198" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C199" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D199" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B200" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C174" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D174" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E174" s="1" t="s">
+      <c r="C200" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D200" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E200" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F174" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G174" s="1" t="s">
+      <c r="F200" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G200" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G174">
-    <sortCondition ref="A2:A174"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G200">
+    <sortCondition ref="A2:A200"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Dataset/Index.xlsx
+++ b/Dataset/Index.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nebulae\GitHub\Genus-Compositicium\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DAA428-EAFF-40C6-ACFC-2F329644465F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92C8546-2DA4-4CD6-9364-D1239E8273E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="477">
   <si>
     <t>AUSON. epigr.</t>
   </si>
@@ -1415,6 +1415,42 @@
   </si>
   <si>
     <t>Incertorum fragmenta tragica</t>
+  </si>
+  <si>
+    <t>VARRO frg.</t>
+  </si>
+  <si>
+    <t>Operum pedestrium deperditorum fragmenta</t>
+  </si>
+  <si>
+    <t>VARRO ling.</t>
+  </si>
+  <si>
+    <t>De lingua Latina libri</t>
+  </si>
+  <si>
+    <t>VARRO rust.</t>
+  </si>
+  <si>
+    <t>Res rusticae</t>
+  </si>
+  <si>
+    <t>LIV. ANDR. trag.</t>
+  </si>
+  <si>
+    <t>TIB.</t>
+  </si>
+  <si>
+    <t>Albius Tibullus</t>
+  </si>
+  <si>
+    <t>Elegiae</t>
+  </si>
+  <si>
+    <t>PROP.</t>
+  </si>
+  <si>
+    <t>Sex. Propertius</t>
   </si>
 </sst>
 </file>
@@ -1775,7 +1811,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G200"/>
+  <dimension ref="A1:G205"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3704,7 +3740,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>330</v>
+        <v>471</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>331</v>
@@ -4716,30 +4752,30 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>190</v>
+        <v>475</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>181</v>
+        <v>476</v>
       </c>
       <c r="C128" s="1">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D128" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>191</v>
+        <v>474</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>181</v>
@@ -4751,7 +4787,7 @@
         <v>5</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>3</v>
@@ -4762,7 +4798,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>181</v>
@@ -4774,7 +4810,7 @@
         <v>5</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>3</v>
@@ -4785,7 +4821,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>181</v>
@@ -4797,7 +4833,7 @@
         <v>5</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>3</v>
@@ -4808,7 +4844,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>181</v>
@@ -4820,7 +4856,7 @@
         <v>5</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>3</v>
@@ -4831,7 +4867,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>181</v>
@@ -4843,7 +4879,7 @@
         <v>5</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>3</v>
@@ -4854,7 +4890,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>181</v>
@@ -4866,7 +4902,7 @@
         <v>5</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>3</v>
@@ -4877,7 +4913,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>181</v>
@@ -4900,30 +4936,30 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>356</v>
+        <v>194</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>357</v>
+        <v>181</v>
       </c>
       <c r="C136" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D136" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>358</v>
+        <v>184</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>357</v>
@@ -4935,7 +4971,7 @@
         <v>-1</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>3</v>
@@ -4946,33 +4982,33 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C138" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D138" s="1">
         <v>-1</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C139" s="1">
         <v>-2</v>
@@ -4981,30 +5017,30 @@
         <v>-1</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>121</v>
+        <v>363</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="C140" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D140" s="1">
         <v>-1</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>385</v>
+        <v>121</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>13</v>
@@ -5015,7 +5051,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>384</v>
@@ -5027,7 +5063,7 @@
         <v>-1</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>13</v>
@@ -5038,7 +5074,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>384</v>
@@ -5050,7 +5086,7 @@
         <v>-1</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>13</v>
@@ -5061,99 +5097,99 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>200</v>
+        <v>386</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>201</v>
+        <v>384</v>
       </c>
       <c r="C143" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D143" s="1">
         <v>-1</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>118</v>
+        <v>387</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C144" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D144" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>366</v>
+        <v>195</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>367</v>
+        <v>196</v>
       </c>
       <c r="C145" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D145" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>198</v>
+        <v>366</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>186</v>
+        <v>367</v>
       </c>
       <c r="C146" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D146" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>186</v>
@@ -5165,7 +5201,7 @@
         <v>1</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>3</v>
@@ -5176,7 +5212,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>186</v>
@@ -5188,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>3</v>
@@ -5199,53 +5235,53 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="C149" s="1">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D149" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C150" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D150" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>163</v>
@@ -5257,7 +5293,7 @@
         <v>2</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>13</v>
@@ -5268,7 +5304,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>163</v>
@@ -5280,18 +5316,18 @@
         <v>2</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>163</v>
@@ -5303,7 +5339,7 @@
         <v>2</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>13</v>
@@ -5314,7 +5350,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>163</v>
@@ -5326,41 +5362,41 @@
         <v>2</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>390</v>
+        <v>162</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>391</v>
+        <v>163</v>
       </c>
       <c r="C155" s="1">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D155" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>392</v>
+        <v>164</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>391</v>
@@ -5372,7 +5408,7 @@
         <v>-2</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>3</v>
@@ -5383,7 +5419,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>391</v>
@@ -5395,7 +5431,7 @@
         <v>-2</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>3</v>
@@ -5406,7 +5442,7 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>391</v>
@@ -5418,7 +5454,7 @@
         <v>-2</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>3</v>
@@ -5429,7 +5465,7 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>391</v>
@@ -5441,7 +5477,7 @@
         <v>-2</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>3</v>
@@ -5452,7 +5488,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>391</v>
@@ -5464,7 +5500,7 @@
         <v>-2</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>3</v>
@@ -5475,30 +5511,30 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>157</v>
+        <v>401</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>158</v>
+        <v>391</v>
       </c>
       <c r="C161" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D161" s="1">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>159</v>
+        <v>402</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>158</v>
@@ -5510,7 +5546,7 @@
         <v>3</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>13</v>
@@ -5521,7 +5557,7 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>158</v>
@@ -5533,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>13</v>
@@ -5544,7 +5580,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>158</v>
@@ -5556,7 +5592,7 @@
         <v>3</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>13</v>
@@ -5567,7 +5603,7 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>314</v>
+        <v>178</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>158</v>
@@ -5579,7 +5615,7 @@
         <v>3</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>315</v>
+        <v>179</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>13</v>
@@ -5590,7 +5626,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>158</v>
@@ -5602,7 +5638,7 @@
         <v>3</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>13</v>
@@ -5613,7 +5649,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>158</v>
@@ -5625,7 +5661,7 @@
         <v>3</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>13</v>
@@ -5636,7 +5672,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>158</v>
@@ -5648,7 +5684,7 @@
         <v>3</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>13</v>
@@ -5659,7 +5695,7 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>158</v>
@@ -5671,7 +5707,7 @@
         <v>3</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>13</v>
@@ -5682,7 +5718,7 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>158</v>
@@ -5694,7 +5730,7 @@
         <v>3</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>13</v>
@@ -5705,7 +5741,7 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>158</v>
@@ -5717,7 +5753,7 @@
         <v>3</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>13</v>
@@ -5728,7 +5764,7 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>158</v>
@@ -5740,7 +5776,7 @@
         <v>3</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>13</v>
@@ -5751,7 +5787,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>158</v>
@@ -5763,7 +5799,7 @@
         <v>3</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>13</v>
@@ -5774,7 +5810,7 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>158</v>
@@ -5786,7 +5822,7 @@
         <v>3</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>13</v>
@@ -5797,7 +5833,7 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>158</v>
@@ -5809,7 +5845,7 @@
         <v>3</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>13</v>
@@ -5820,7 +5856,7 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>158</v>
@@ -5832,7 +5868,7 @@
         <v>3</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>13</v>
@@ -5843,7 +5879,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>158</v>
@@ -5855,7 +5891,7 @@
         <v>3</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>13</v>
@@ -5866,7 +5902,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>158</v>
@@ -5878,7 +5914,7 @@
         <v>3</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>13</v>
@@ -5889,7 +5925,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>158</v>
@@ -5901,7 +5937,7 @@
         <v>3</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>13</v>
@@ -5912,7 +5948,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>158</v>
@@ -5924,7 +5960,7 @@
         <v>3</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>13</v>
@@ -5935,7 +5971,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>158</v>
@@ -5947,7 +5983,7 @@
         <v>3</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>13</v>
@@ -5958,7 +5994,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>158</v>
@@ -5970,7 +6006,7 @@
         <v>3</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>13</v>
@@ -5981,7 +6017,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>158</v>
@@ -5993,7 +6029,7 @@
         <v>3</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>13</v>
@@ -6004,7 +6040,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>158</v>
@@ -6016,7 +6052,7 @@
         <v>3</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>13</v>
@@ -6027,7 +6063,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>158</v>
@@ -6039,7 +6075,7 @@
         <v>3</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>13</v>
@@ -6050,7 +6086,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>158</v>
@@ -6062,7 +6098,7 @@
         <v>3</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>13</v>
@@ -6073,7 +6109,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>158</v>
@@ -6085,7 +6121,7 @@
         <v>3</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>13</v>
@@ -6096,7 +6132,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>158</v>
@@ -6108,7 +6144,7 @@
         <v>3</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>13</v>
@@ -6119,7 +6155,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>158</v>
@@ -6131,7 +6167,7 @@
         <v>3</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>13</v>
@@ -6142,7 +6178,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>158</v>
@@ -6154,7 +6190,7 @@
         <v>3</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>13</v>
@@ -6165,7 +6201,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>158</v>
@@ -6177,7 +6213,7 @@
         <v>3</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>13</v>
@@ -6188,42 +6224,42 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>380</v>
+        <v>271</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>381</v>
+        <v>158</v>
       </c>
       <c r="C192" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D192" s="1">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>382</v>
+        <v>272</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>240</v>
+        <v>473</v>
       </c>
       <c r="C193" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D193" s="1">
         <v>-1</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>3</v>
@@ -6234,10 +6270,10 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="C194" s="1">
         <v>-2</v>
@@ -6246,7 +6282,7 @@
         <v>-2</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>3</v>
@@ -6257,19 +6293,19 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>273</v>
+        <v>463</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="C195" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D195" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>275</v>
+        <v>464</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>3</v>
@@ -6280,56 +6316,56 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C196" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D196" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>249</v>
+        <v>370</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>373</v>
+        <v>273</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
       <c r="C197" s="1">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D197" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>375</v>
+        <v>275</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>323</v>
+        <v>372</v>
       </c>
       <c r="C198" s="1">
         <v>-1</v>
@@ -6338,7 +6374,7 @@
         <v>-1</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>377</v>
+        <v>249</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>3</v>
@@ -6349,53 +6385,168 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>378</v>
+        <v>465</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>323</v>
+        <v>374</v>
       </c>
       <c r="C199" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D199" s="1">
         <v>-1</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>379</v>
+        <v>466</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C200" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D200" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C201" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D201" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C202" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D202" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C203" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D203" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C204" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D204" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B205" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C200" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D200" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E200" s="1" t="s">
+      <c r="C205" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D205" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E205" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F200" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G200" s="1" t="s">
+      <c r="F205" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G205" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G200">
-    <sortCondition ref="A2:A200"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G205">
+    <sortCondition ref="A2:A205"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Dataset/Index.xlsx
+++ b/Dataset/Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92C8546-2DA4-4CD6-9364-D1239E8273E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6E1B42-1B76-4AFE-A28A-7338281D80C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="586">
   <si>
     <t>AUSON. epigr.</t>
   </si>
@@ -406,12 +406,6 @@
     <t>CARM. inc.</t>
   </si>
   <si>
-    <t>Incertus auctor</t>
-  </si>
-  <si>
-    <t>Carmina aut carminum fragmenta adespota (praeter scaenica)</t>
-  </si>
-  <si>
     <t>CATO epist. frg.</t>
   </si>
   <si>
@@ -1261,9 +1255,6 @@
     <t>Fragmenta ex auguralis disciplinae libris (= GRF Funaioli, pp. 426-427)</t>
   </si>
   <si>
-    <t>CARM.</t>
-  </si>
-  <si>
     <t>Carmina aut carminum fragmenta adespota praeter scaenica (= CIC. de orat. 3, 167)</t>
   </si>
   <si>
@@ -1399,9 +1390,6 @@
     <t>ORAT. FRG.</t>
   </si>
   <si>
-    <t>Incerti auctores</t>
-  </si>
-  <si>
     <t>Fragmenta oratoria</t>
   </si>
   <si>
@@ -1451,6 +1439,345 @@
   </si>
   <si>
     <t>Sex. Propertius</t>
+  </si>
+  <si>
+    <t>Tituli historiarum (vulgo 'Dittochaeon')</t>
+  </si>
+  <si>
+    <t>POMP. TROG. hist.</t>
+  </si>
+  <si>
+    <t>Pompeius Trogus</t>
+  </si>
+  <si>
+    <t>Historiae Philippicae</t>
+  </si>
+  <si>
+    <t>POMP. TROG. anim.</t>
+  </si>
+  <si>
+    <t>De animalibus</t>
+  </si>
+  <si>
+    <t>POLLIO or. frg.</t>
+  </si>
+  <si>
+    <t>C. Asinius Pollio</t>
+  </si>
+  <si>
+    <t>POLLIO hist.</t>
+  </si>
+  <si>
+    <t>BUC. Eins.</t>
+  </si>
+  <si>
+    <t>Bucolica Einsidlensia</t>
+  </si>
+  <si>
+    <t>HOR. ars</t>
+  </si>
+  <si>
+    <t>Q. Horatius Flaccus</t>
+  </si>
+  <si>
+    <t>De arte poetica (epistula ad Pisones)</t>
+  </si>
+  <si>
+    <t>HOR. carm. saec.</t>
+  </si>
+  <si>
+    <t>Carmen saeculare</t>
+  </si>
+  <si>
+    <t>HOR. carm.</t>
+  </si>
+  <si>
+    <t>HOR. epod.</t>
+  </si>
+  <si>
+    <t>Epodi</t>
+  </si>
+  <si>
+    <t>HOR. epist.</t>
+  </si>
+  <si>
+    <t>HOR. sat.</t>
+  </si>
+  <si>
+    <t>CALP. ecl.</t>
+  </si>
+  <si>
+    <t>T. Calpurnius Siculus</t>
+  </si>
+  <si>
+    <t>Eclogae</t>
+  </si>
+  <si>
+    <t>PHAEDR.</t>
+  </si>
+  <si>
+    <t>Phaedrus Augusti libertus</t>
+  </si>
+  <si>
+    <t>Fabulae</t>
+  </si>
+  <si>
+    <t>HOMER.</t>
+  </si>
+  <si>
+    <t>Homerus latinus vel Ilias latina</t>
+  </si>
+  <si>
+    <t>PRIAP.</t>
+  </si>
+  <si>
+    <t>Priapea</t>
+  </si>
+  <si>
+    <t>NEMES. cyn.</t>
+  </si>
+  <si>
+    <t>M. Aurelius Olympius Nemesianus poeta Carthaginiensis</t>
+  </si>
+  <si>
+    <t>Cynegeticon quae supersunt</t>
+  </si>
+  <si>
+    <t>NEMES. ecl.</t>
+  </si>
+  <si>
+    <t>Eclogae (bucolica)</t>
+  </si>
+  <si>
+    <t>RUT. NAM.</t>
+  </si>
+  <si>
+    <t>Rutilius Claudius Namatianus</t>
+  </si>
+  <si>
+    <t>De reditu suo sive iter Gallicum</t>
+  </si>
+  <si>
+    <t>Auctor ignotus</t>
+  </si>
+  <si>
+    <t>Baebius Italicus (?)</t>
+  </si>
+  <si>
+    <t>CIC. Arch.</t>
+  </si>
+  <si>
+    <t>Pro A. Licinio Archia poeta oratio</t>
+  </si>
+  <si>
+    <t>CIC. Balb.</t>
+  </si>
+  <si>
+    <t>Pro L. Cornelio Balbo oratio</t>
+  </si>
+  <si>
+    <t>CIC. Caecin.</t>
+  </si>
+  <si>
+    <t>Pro A. Caecina oratio</t>
+  </si>
+  <si>
+    <t>CIC. Cael.</t>
+  </si>
+  <si>
+    <t>Pro M. Caelio Rufo oratio</t>
+  </si>
+  <si>
+    <t>CIC. Catil.</t>
+  </si>
+  <si>
+    <t>In L. Sergium Catilinam orationes</t>
+  </si>
+  <si>
+    <t>CIC. Cluent.</t>
+  </si>
+  <si>
+    <t>Pro A. Cluentio Habito oratio</t>
+  </si>
+  <si>
+    <t>CIC. Deiot.</t>
+  </si>
+  <si>
+    <t>Pro rege Deiotaro oratio</t>
+  </si>
+  <si>
+    <t>CIC. div. in Caec.</t>
+  </si>
+  <si>
+    <t>In Q. Caecilium Nigrum oratio, quae divinatio dicitur</t>
+  </si>
+  <si>
+    <t>CIC. dom.</t>
+  </si>
+  <si>
+    <t>De domo sua ad pontifices oratio</t>
+  </si>
+  <si>
+    <t>CIC. Flacc.</t>
+  </si>
+  <si>
+    <t>Pro L. Valerio Flacco oratio</t>
+  </si>
+  <si>
+    <t>CIC. Font.</t>
+  </si>
+  <si>
+    <t>Pro M. Fonteio orationis quae exstant</t>
+  </si>
+  <si>
+    <t>CIC. har. resp.</t>
+  </si>
+  <si>
+    <t>De haruspicum responso oratio</t>
+  </si>
+  <si>
+    <t>CIC. leg. agr.</t>
+  </si>
+  <si>
+    <t>De lege agraria orationum quae exstant</t>
+  </si>
+  <si>
+    <t>CIC. Lig.</t>
+  </si>
+  <si>
+    <t>Pro Q. Ligario oratio</t>
+  </si>
+  <si>
+    <t>CIC. Manil.</t>
+  </si>
+  <si>
+    <t>Pro lege Manilia (de imperio Cn. Pompei) oratio</t>
+  </si>
+  <si>
+    <t>CIC. Marcell.</t>
+  </si>
+  <si>
+    <t>Pro M. Claudio Marcello oratio</t>
+  </si>
+  <si>
+    <t>CIC. Mil.</t>
+  </si>
+  <si>
+    <t>Pro T. Annio Milone oratio</t>
+  </si>
+  <si>
+    <t>CIC. Mur.</t>
+  </si>
+  <si>
+    <t>Pro L. Licinio Murena oratio</t>
+  </si>
+  <si>
+    <t>CIC. or. frg.</t>
+  </si>
+  <si>
+    <t>Orationum deperditarum fragmenta</t>
+  </si>
+  <si>
+    <t>CIC. Phil.</t>
+  </si>
+  <si>
+    <t>In M. Antonium orationes Philippicae</t>
+  </si>
+  <si>
+    <t>CIC. Pis.</t>
+  </si>
+  <si>
+    <t>In L. Calpurnium Pisonem oratio</t>
+  </si>
+  <si>
+    <t>CIC. Planc.</t>
+  </si>
+  <si>
+    <t>Pro Cn. Plancio oratio</t>
+  </si>
+  <si>
+    <t>CIC. prov.</t>
+  </si>
+  <si>
+    <t>De provinciis consularibus oratio</t>
+  </si>
+  <si>
+    <t>CIC. Q. Rosc.</t>
+  </si>
+  <si>
+    <t>Pro Q. Roscio Gallo comoedo oratio (mutila)</t>
+  </si>
+  <si>
+    <t>CIC. Quinct.</t>
+  </si>
+  <si>
+    <t>Pro P. Quinctio oratio</t>
+  </si>
+  <si>
+    <t>CIC. Rab. perd.</t>
+  </si>
+  <si>
+    <t>Pro C. Rabirio perduellionis reo orationis quae exstant</t>
+  </si>
+  <si>
+    <t>CIC. Rab. Post.</t>
+  </si>
+  <si>
+    <t>Pro C. Rabirio Postumo oratio</t>
+  </si>
+  <si>
+    <t>CIC. p. red. ad Quir.</t>
+  </si>
+  <si>
+    <t>Post reditum ad Quirites (cum populo gratias egit) oratio</t>
+  </si>
+  <si>
+    <t>CIC. p. red. in sen.</t>
+  </si>
+  <si>
+    <t>Post reditum in senatu (cum senatui gratias egit) oratio</t>
+  </si>
+  <si>
+    <t>CIC. Scaur.</t>
+  </si>
+  <si>
+    <t>Pro M. Aemilio Scauro orationis quae exstant</t>
+  </si>
+  <si>
+    <t>CIC. Sest.</t>
+  </si>
+  <si>
+    <t>Pro P. Sestio oratio</t>
+  </si>
+  <si>
+    <t>CIC. S. Rosc.</t>
+  </si>
+  <si>
+    <t>Pro Sex. Roscio Amerino oratio</t>
+  </si>
+  <si>
+    <t>CIC. Sull.</t>
+  </si>
+  <si>
+    <t>Pro P. Cornelio Sulla oratio</t>
+  </si>
+  <si>
+    <t>CIC. Tull.</t>
+  </si>
+  <si>
+    <t>Pro M. Tullio orationis quae exstant</t>
+  </si>
+  <si>
+    <t>CIC. Vatin.</t>
+  </si>
+  <si>
+    <t>In P. Vatinium testem interrogatio</t>
+  </si>
+  <si>
+    <t>CIC. Verr.</t>
+  </si>
+  <si>
+    <t>In C. Verrem orationes sex</t>
   </si>
 </sst>
 </file>
@@ -1811,7 +2138,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G205"/>
+  <dimension ref="A1:G258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1831,25 +2158,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1969,19 +2296,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C7" s="1">
-        <v>-2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>-2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
@@ -2567,7 +2894,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>1</v>
@@ -2579,7 +2906,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>3</v>
@@ -2590,7 +2917,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>1</v>
@@ -2602,7 +2929,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>3</v>
@@ -2613,7 +2940,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>1</v>
@@ -2625,7 +2952,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>3</v>
@@ -2636,10 +2963,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C36" s="1">
         <v>-1</v>
@@ -2648,7 +2975,7 @@
         <v>-1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>13</v>
@@ -2659,19 +2986,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C37" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D37" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
@@ -2682,10 +3009,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C38" s="1">
         <v>-1</v>
@@ -2694,7 +3021,7 @@
         <v>-1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>13</v>
@@ -2705,56 +3032,56 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>144</v>
+        <v>482</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>145</v>
+        <v>512</v>
       </c>
       <c r="C39" s="1">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D39" s="1">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>146</v>
+        <v>483</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C40" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D40" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C41" s="1">
         <v>-1</v>
@@ -2763,7 +3090,7 @@
         <v>-1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>13</v>
@@ -2774,19 +3101,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C42" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D42" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>13</v>
@@ -2797,19 +3124,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>413</v>
+        <v>494</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>128</v>
+        <v>495</v>
       </c>
       <c r="C43" s="1">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D43" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>414</v>
+        <v>496</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -2820,42 +3147,42 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C44" s="1">
         <v>-2</v>
       </c>
       <c r="D44" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>123</v>
+        <v>512</v>
       </c>
       <c r="C45" s="1">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D45" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>124</v>
+        <v>411</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>3</v>
@@ -2866,30 +3193,30 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C46" s="1">
         <v>-3</v>
       </c>
       <c r="D46" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>113</v>
@@ -2901,18 +3228,18 @@
         <v>-2</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>113</v>
@@ -2924,18 +3251,18 @@
         <v>-2</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>113</v>
@@ -2947,18 +3274,18 @@
         <v>-2</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>113</v>
@@ -2970,53 +3297,53 @@
         <v>-2</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C51" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D51" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C52" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D52" s="1">
         <v>-1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>3</v>
@@ -3027,7 +3354,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>105</v>
@@ -3039,7 +3366,7 @@
         <v>-1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>3</v>
@@ -3050,111 +3377,111 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>102</v>
+        <v>514</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C54" s="1">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D54" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>103</v>
+        <v>515</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>80</v>
+        <v>516</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C55" s="1">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D55" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>81</v>
+        <v>517</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>82</v>
+        <v>518</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C56" s="1">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D56" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>83</v>
+        <v>519</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>84</v>
+        <v>520</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C57" s="1">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D57" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>85</v>
+        <v>521</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C58" s="1">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D58" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>3</v>
@@ -3165,240 +3492,240 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>96</v>
+        <v>522</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C59" s="1">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D59" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>97</v>
+        <v>523</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>100</v>
+        <v>524</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C60" s="1">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D60" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>101</v>
+        <v>525</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>90</v>
+        <v>526</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C61" s="1">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D61" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>91</v>
+        <v>527</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>92</v>
+        <v>528</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C62" s="1">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D62" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>93</v>
+        <v>529</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>98</v>
+        <v>530</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C63" s="1">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D63" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>99</v>
+        <v>531</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>107</v>
+        <v>532</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C64" s="1">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D64" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>108</v>
+        <v>533</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>88</v>
+        <v>534</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C65" s="1">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D65" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>89</v>
+        <v>535</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>94</v>
+        <v>536</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C66" s="1">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D66" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>95</v>
+        <v>537</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>77</v>
+        <v>538</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C67" s="1">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D67" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>79</v>
+        <v>539</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>250</v>
+        <v>540</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C68" s="1">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D68" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>251</v>
+        <v>541</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>239</v>
+        <v>542</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>240</v>
+        <v>105</v>
       </c>
       <c r="C69" s="1">
         <v>-2</v>
@@ -3407,21 +3734,21 @@
         <v>-1</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>241</v>
+        <v>543</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>461</v>
+        <v>544</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>240</v>
+        <v>105</v>
       </c>
       <c r="C70" s="1">
         <v>-2</v>
@@ -3430,251 +3757,251 @@
         <v>-1</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>462</v>
+        <v>545</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>247</v>
+        <v>546</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>248</v>
+        <v>105</v>
       </c>
       <c r="C71" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D71" s="1">
         <v>-1</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>249</v>
+        <v>547</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>242</v>
+        <v>548</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>243</v>
+        <v>105</v>
       </c>
       <c r="C72" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D72" s="1">
         <v>-1</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>244</v>
+        <v>549</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>245</v>
+        <v>550</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>246</v>
+        <v>105</v>
       </c>
       <c r="C73" s="1">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D73" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>121</v>
+        <v>551</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>263</v>
+        <v>568</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>246</v>
+        <v>105</v>
       </c>
       <c r="C74" s="1">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D74" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>264</v>
+        <v>569</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>259</v>
+        <v>570</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>246</v>
+        <v>105</v>
       </c>
       <c r="C75" s="1">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D75" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>260</v>
+        <v>571</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>261</v>
+        <v>552</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>246</v>
+        <v>105</v>
       </c>
       <c r="C76" s="1">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D76" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>262</v>
+        <v>553</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>254</v>
+        <v>554</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>246</v>
+        <v>105</v>
       </c>
       <c r="C77" s="1">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D77" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>255</v>
+        <v>555</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>325</v>
+        <v>556</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>326</v>
+        <v>105</v>
       </c>
       <c r="C78" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D78" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>327</v>
+        <v>557</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>256</v>
+        <v>558</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>257</v>
+        <v>105</v>
       </c>
       <c r="C79" s="1">
         <v>-2</v>
       </c>
       <c r="D79" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>258</v>
+        <v>559</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>252</v>
+        <v>560</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>253</v>
+        <v>105</v>
       </c>
       <c r="C80" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D80" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>210</v>
+        <v>561</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>211</v>
+        <v>562</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>212</v>
+        <v>105</v>
       </c>
       <c r="C81" s="1">
         <v>-2</v>
@@ -3683,159 +4010,159 @@
         <v>-1</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>213</v>
+        <v>563</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>328</v>
+        <v>564</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>329</v>
+        <v>105</v>
       </c>
       <c r="C82" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D82" s="1">
         <v>-1</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>249</v>
+        <v>565</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>330</v>
+        <v>566</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>331</v>
+        <v>105</v>
       </c>
       <c r="C83" s="1">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D83" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>43</v>
+        <v>567</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>471</v>
+        <v>576</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>331</v>
+        <v>105</v>
       </c>
       <c r="C84" s="1">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D84" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>57</v>
+        <v>577</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>218</v>
+        <v>572</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>219</v>
+        <v>105</v>
       </c>
       <c r="C85" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D85" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>220</v>
+        <v>573</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>332</v>
+        <v>574</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>333</v>
+        <v>105</v>
       </c>
       <c r="C86" s="1">
         <v>-2</v>
       </c>
       <c r="D86" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>262</v>
+        <v>575</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>334</v>
+        <v>578</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>335</v>
+        <v>105</v>
       </c>
       <c r="C87" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D87" s="1">
         <v>-1</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>336</v>
+        <v>579</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>337</v>
+        <v>580</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>338</v>
+        <v>105</v>
       </c>
       <c r="C88" s="1">
         <v>-2</v>
@@ -3844,76 +4171,76 @@
         <v>-1</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>339</v>
+        <v>581</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>217</v>
+        <v>582</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>215</v>
+        <v>105</v>
       </c>
       <c r="C89" s="1">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="D89" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>111</v>
+        <v>583</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>214</v>
+        <v>584</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>215</v>
+        <v>105</v>
       </c>
       <c r="C90" s="1">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="D90" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>216</v>
+        <v>585</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>237</v>
+        <v>102</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>215</v>
+        <v>78</v>
       </c>
       <c r="C91" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" s="1">
         <v>5</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>238</v>
+        <v>103</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>3</v>
@@ -3924,65 +4251,65 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>215</v>
+        <v>78</v>
       </c>
       <c r="C92" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" s="1">
         <v>5</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>228</v>
+        <v>81</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>229</v>
+        <v>82</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="C93" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>231</v>
+        <v>83</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>340</v>
+        <v>84</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>341</v>
+        <v>78</v>
       </c>
       <c r="C94" s="1">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="D94" s="1">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>342</v>
+        <v>85</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>3</v>
@@ -3993,42 +4320,42 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>343</v>
+        <v>86</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>341</v>
+        <v>78</v>
       </c>
       <c r="C95" s="1">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="D95" s="1">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>344</v>
+        <v>96</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>341</v>
+        <v>78</v>
       </c>
       <c r="C96" s="1">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="D96" s="1">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>3</v>
@@ -4039,111 +4366,111 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="C97" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D97" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>236</v>
+        <v>101</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>345</v>
+        <v>90</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>346</v>
+        <v>78</v>
       </c>
       <c r="C98" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D98" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>347</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>348</v>
+        <v>92</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>349</v>
+        <v>78</v>
       </c>
       <c r="C99" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D99" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>350</v>
+        <v>93</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>458</v>
+        <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>459</v>
+        <v>78</v>
       </c>
       <c r="C100" s="1">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="D100" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>460</v>
+        <v>99</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>351</v>
+        <v>107</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>352</v>
+        <v>78</v>
       </c>
       <c r="C101" s="1">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="D101" s="1">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>3</v>
@@ -4154,111 +4481,111 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>208</v>
+        <v>88</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="C102" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D102" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>210</v>
+        <v>89</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>224</v>
+        <v>94</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="C103" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D103" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>226</v>
+        <v>95</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>418</v>
+        <v>77</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>416</v>
+        <v>78</v>
       </c>
       <c r="C104" s="1">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="D104" s="1">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>420</v>
+        <v>248</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>416</v>
+        <v>78</v>
       </c>
       <c r="C105" s="1">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="D105" s="1">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>421</v>
+        <v>249</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>422</v>
+        <v>237</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>416</v>
+        <v>238</v>
       </c>
       <c r="C106" s="1">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D106" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>423</v>
+        <v>239</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>3</v>
@@ -4269,19 +4596,19 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>424</v>
+        <v>457</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>416</v>
+        <v>238</v>
       </c>
       <c r="C107" s="1">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D107" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>425</v>
+        <v>458</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>3</v>
@@ -4292,56 +4619,56 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>426</v>
+        <v>245</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>416</v>
+        <v>246</v>
       </c>
       <c r="C108" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D108" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>427</v>
+        <v>247</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>428</v>
+        <v>240</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>416</v>
+        <v>241</v>
       </c>
       <c r="C109" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D109" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>429</v>
+        <v>242</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>430</v>
+        <v>243</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>416</v>
+        <v>244</v>
       </c>
       <c r="C110" s="1">
         <v>-3</v>
@@ -4350,21 +4677,21 @@
         <v>-2</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>431</v>
+        <v>121</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>432</v>
+        <v>261</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>416</v>
+        <v>244</v>
       </c>
       <c r="C111" s="1">
         <v>-3</v>
@@ -4373,21 +4700,21 @@
         <v>-2</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>433</v>
+        <v>262</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>434</v>
+        <v>257</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>416</v>
+        <v>244</v>
       </c>
       <c r="C112" s="1">
         <v>-3</v>
@@ -4396,21 +4723,21 @@
         <v>-2</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>435</v>
+        <v>258</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>436</v>
+        <v>259</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>416</v>
+        <v>244</v>
       </c>
       <c r="C113" s="1">
         <v>-3</v>
@@ -4419,7 +4746,7 @@
         <v>-2</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>437</v>
+        <v>260</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>3</v>
@@ -4430,10 +4757,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>438</v>
+        <v>252</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>416</v>
+        <v>244</v>
       </c>
       <c r="C114" s="1">
         <v>-3</v>
@@ -4442,191 +4769,191 @@
         <v>-2</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>439</v>
+        <v>253</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>440</v>
+        <v>323</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>416</v>
+        <v>324</v>
       </c>
       <c r="C115" s="1">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="D115" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>441</v>
+        <v>325</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>416</v>
+        <v>513</v>
       </c>
       <c r="C116" s="1">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D116" s="1">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>443</v>
+        <v>501</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>444</v>
+        <v>484</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>416</v>
+        <v>485</v>
       </c>
       <c r="C117" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D117" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>445</v>
+        <v>486</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>446</v>
+        <v>489</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>416</v>
+        <v>485</v>
       </c>
       <c r="C118" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D118" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>447</v>
+        <v>111</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>448</v>
+        <v>487</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>416</v>
+        <v>485</v>
       </c>
       <c r="C119" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D119" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>449</v>
+        <v>488</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>450</v>
+        <v>492</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>416</v>
+        <v>485</v>
       </c>
       <c r="C120" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D120" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>451</v>
+        <v>231</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>452</v>
+        <v>490</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>416</v>
+        <v>485</v>
       </c>
       <c r="C121" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D121" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>453</v>
+        <v>491</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>416</v>
+        <v>485</v>
       </c>
       <c r="C122" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D122" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>455</v>
+        <v>208</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>3</v>
@@ -4637,42 +4964,42 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>456</v>
+        <v>254</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>416</v>
+        <v>255</v>
       </c>
       <c r="C123" s="1">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D123" s="1">
         <v>-2</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>457</v>
+        <v>256</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>415</v>
+        <v>250</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>416</v>
+        <v>251</v>
       </c>
       <c r="C124" s="1">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D124" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>417</v>
+        <v>208</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>3</v>
@@ -4683,65 +5010,65 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C125" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D125" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>221</v>
+        <v>326</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
       <c r="C126" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D126" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="C127" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D127" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>355</v>
+        <v>43</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>3</v>
@@ -4752,19 +5079,19 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>476</v>
+        <v>329</v>
       </c>
       <c r="C128" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D128" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>474</v>
+        <v>57</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>3</v>
@@ -4775,332 +5102,332 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="C129" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D129" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>188</v>
+        <v>330</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>181</v>
+        <v>331</v>
       </c>
       <c r="C130" s="1">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D130" s="1">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>189</v>
+        <v>260</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>180</v>
+        <v>332</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>181</v>
+        <v>333</v>
       </c>
       <c r="C131" s="1">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D131" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>182</v>
+        <v>334</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>204</v>
+        <v>335</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>181</v>
+        <v>336</v>
       </c>
       <c r="C132" s="1">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D132" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>205</v>
+        <v>337</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="C133" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D133" s="1">
         <v>5</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>203</v>
+        <v>111</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="C134" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D134" s="1">
         <v>5</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="C135" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D135" s="1">
         <v>5</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="C136" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D136" s="1">
         <v>5</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>356</v>
+        <v>227</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>357</v>
+        <v>228</v>
       </c>
       <c r="C137" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D137" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>358</v>
+        <v>229</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="C138" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D138" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="C139" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D139" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>363</v>
+        <v>43</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="C140" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D140" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>384</v>
+        <v>505</v>
       </c>
       <c r="C141" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D141" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>385</v>
+        <v>506</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>388</v>
+        <v>507</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>384</v>
+        <v>505</v>
       </c>
       <c r="C142" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D142" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>389</v>
+        <v>508</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>386</v>
+        <v>232</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>384</v>
+        <v>233</v>
       </c>
       <c r="C143" s="1">
         <v>-1</v>
@@ -5109,7 +5436,7 @@
         <v>-1</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>387</v>
+        <v>234</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>13</v>
@@ -5120,88 +5447,88 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>200</v>
+        <v>343</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>201</v>
+        <v>344</v>
       </c>
       <c r="C144" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D144" s="1">
         <v>-1</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>118</v>
+        <v>345</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>195</v>
+        <v>346</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>196</v>
+        <v>347</v>
       </c>
       <c r="C145" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D145" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>197</v>
+        <v>348</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>366</v>
+        <v>455</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>367</v>
+        <v>238</v>
       </c>
       <c r="C146" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D146" s="1">
         <v>-1</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>164</v>
+        <v>456</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>198</v>
+        <v>349</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>186</v>
+        <v>350</v>
       </c>
       <c r="C147" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="D147" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>199</v>
+        <v>57</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>3</v>
@@ -5212,10 +5539,10 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C148" s="1">
         <v>1</v>
@@ -5224,21 +5551,21 @@
         <v>1</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="C149" s="1">
         <v>1</v>
@@ -5247,168 +5574,168 @@
         <v>1</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>171</v>
+        <v>497</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>172</v>
+        <v>498</v>
       </c>
       <c r="C150" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D150" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>173</v>
+        <v>499</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>174</v>
+        <v>415</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>163</v>
+        <v>413</v>
       </c>
       <c r="C151" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="D151" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>175</v>
+        <v>416</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>176</v>
+        <v>417</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>163</v>
+        <v>413</v>
       </c>
       <c r="C152" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="D152" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>177</v>
+        <v>418</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>169</v>
+        <v>419</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>163</v>
+        <v>413</v>
       </c>
       <c r="C153" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="D153" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>170</v>
+        <v>420</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>167</v>
+        <v>421</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>163</v>
+        <v>413</v>
       </c>
       <c r="C154" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="D154" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>168</v>
+        <v>422</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>162</v>
+        <v>423</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>163</v>
+        <v>413</v>
       </c>
       <c r="C155" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="D155" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>164</v>
+        <v>424</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="C156" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D156" s="1">
         <v>-2</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>392</v>
+        <v>426</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>3</v>
@@ -5419,19 +5746,19 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>393</v>
+        <v>427</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="C157" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D157" s="1">
         <v>-2</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>3</v>
@@ -5442,19 +5769,19 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>395</v>
+        <v>429</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="C158" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D158" s="1">
         <v>-2</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>3</v>
@@ -5465,19 +5792,19 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>397</v>
+        <v>431</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="C159" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D159" s="1">
         <v>-2</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>398</v>
+        <v>432</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>3</v>
@@ -5488,19 +5815,19 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="C160" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D160" s="1">
         <v>-2</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>3</v>
@@ -5511,19 +5838,19 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="C161" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D161" s="1">
         <v>-2</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>3</v>
@@ -5534,459 +5861,459 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>157</v>
+        <v>437</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>158</v>
+        <v>413</v>
       </c>
       <c r="C162" s="1">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="D162" s="1">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>159</v>
+        <v>438</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>165</v>
+        <v>439</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>158</v>
+        <v>413</v>
       </c>
       <c r="C163" s="1">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="D163" s="1">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>166</v>
+        <v>440</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>160</v>
+        <v>441</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>158</v>
+        <v>413</v>
       </c>
       <c r="C164" s="1">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="D164" s="1">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>161</v>
+        <v>442</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>178</v>
+        <v>443</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>158</v>
+        <v>413</v>
       </c>
       <c r="C165" s="1">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="D165" s="1">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>179</v>
+        <v>444</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>314</v>
+        <v>445</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>158</v>
+        <v>413</v>
       </c>
       <c r="C166" s="1">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="D166" s="1">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>315</v>
+        <v>446</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>158</v>
+        <v>413</v>
       </c>
       <c r="C167" s="1">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="D167" s="1">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>317</v>
+        <v>448</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>312</v>
+        <v>449</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>158</v>
+        <v>413</v>
       </c>
       <c r="C168" s="1">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="D168" s="1">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>313</v>
+        <v>450</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>302</v>
+        <v>451</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>158</v>
+        <v>413</v>
       </c>
       <c r="C169" s="1">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="D169" s="1">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>303</v>
+        <v>452</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>306</v>
+        <v>453</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>158</v>
+        <v>413</v>
       </c>
       <c r="C170" s="1">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="D170" s="1">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>307</v>
+        <v>454</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>308</v>
+        <v>412</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>158</v>
+        <v>413</v>
       </c>
       <c r="C171" s="1">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="D171" s="1">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>309</v>
+        <v>414</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="C172" s="1">
+        <v>1</v>
+      </c>
+      <c r="D172" s="1">
         <v>2</v>
       </c>
-      <c r="D172" s="1">
-        <v>3</v>
-      </c>
       <c r="E172" s="1" t="s">
-        <v>305</v>
+        <v>231</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>318</v>
+        <v>219</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="C173" s="1">
+        <v>1</v>
+      </c>
+      <c r="D173" s="1">
         <v>2</v>
       </c>
-      <c r="D173" s="1">
-        <v>3</v>
-      </c>
       <c r="E173" s="1" t="s">
-        <v>319</v>
+        <v>221</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>310</v>
+        <v>481</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>158</v>
+        <v>480</v>
       </c>
       <c r="C174" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D174" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>311</v>
+        <v>162</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>320</v>
+        <v>479</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>158</v>
+        <v>480</v>
       </c>
       <c r="C175" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D175" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>321</v>
+        <v>118</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>292</v>
+        <v>477</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>158</v>
+        <v>475</v>
       </c>
       <c r="C176" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D176" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>293</v>
+        <v>478</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>296</v>
+        <v>474</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>158</v>
+        <v>475</v>
       </c>
       <c r="C177" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D177" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>297</v>
+        <v>476</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>294</v>
+        <v>351</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>158</v>
+        <v>352</v>
       </c>
       <c r="C178" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D178" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>295</v>
+        <v>353</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>298</v>
+        <v>502</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>158</v>
+        <v>512</v>
       </c>
       <c r="C179" s="1">
         <v>2</v>
       </c>
       <c r="D179" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>299</v>
+        <v>503</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>290</v>
+        <v>471</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>158</v>
+        <v>472</v>
       </c>
       <c r="C180" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D180" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>291</v>
+        <v>470</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>284</v>
+        <v>188</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="C181" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D181" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>285</v>
+        <v>189</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>30</v>
@@ -5994,22 +6321,22 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>288</v>
+        <v>186</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="C182" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D182" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>289</v>
+        <v>187</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>30</v>
@@ -6017,22 +6344,22 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>282</v>
+        <v>178</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="C183" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D183" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>283</v>
+        <v>180</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>30</v>
@@ -6040,22 +6367,22 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>286</v>
+        <v>202</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="C184" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D184" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>287</v>
+        <v>203</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>30</v>
@@ -6063,22 +6390,22 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="C185" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D185" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>30</v>
@@ -6086,22 +6413,22 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>278</v>
+        <v>204</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="C186" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D186" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>279</v>
+        <v>205</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>30</v>
@@ -6109,22 +6436,22 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>276</v>
+        <v>181</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="C187" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D187" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>277</v>
+        <v>182</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>30</v>
@@ -6132,22 +6459,22 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>280</v>
+        <v>192</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="C188" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D188" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>281</v>
+        <v>473</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>30</v>
@@ -6155,111 +6482,111 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>158</v>
+        <v>355</v>
       </c>
       <c r="C189" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D189" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>266</v>
+        <v>356</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>269</v>
+        <v>357</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>158</v>
+        <v>355</v>
       </c>
       <c r="C190" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D190" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>270</v>
+        <v>358</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>267</v>
+        <v>359</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>158</v>
+        <v>360</v>
       </c>
       <c r="C191" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D191" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>268</v>
+        <v>361</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>271</v>
+        <v>362</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>158</v>
+        <v>363</v>
       </c>
       <c r="C192" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D192" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>272</v>
+        <v>121</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>472</v>
+        <v>509</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>473</v>
+        <v>510</v>
       </c>
       <c r="C193" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D193" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>474</v>
+        <v>511</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>3</v>
@@ -6270,111 +6597,111 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C194" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D194" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>463</v>
+        <v>386</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>240</v>
+        <v>382</v>
       </c>
       <c r="C195" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D195" s="1">
         <v>-1</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>464</v>
+        <v>387</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C196" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D196" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>273</v>
+        <v>198</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>274</v>
+        <v>199</v>
       </c>
       <c r="C197" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D197" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>275</v>
+        <v>118</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>371</v>
+        <v>193</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>372</v>
+        <v>194</v>
       </c>
       <c r="C198" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D198" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>249</v>
+        <v>195</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>3</v>
@@ -6385,168 +6712,1387 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>465</v>
+        <v>364</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C199" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D199" s="1">
         <v>-1</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>466</v>
+        <v>162</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>467</v>
+        <v>196</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>374</v>
+        <v>184</v>
       </c>
       <c r="C200" s="1">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D200" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>468</v>
+        <v>197</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>373</v>
+        <v>190</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>374</v>
+        <v>184</v>
       </c>
       <c r="C201" s="1">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D201" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>375</v>
+        <v>191</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>469</v>
+        <v>183</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>374</v>
+        <v>184</v>
       </c>
       <c r="C202" s="1">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D202" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>470</v>
+        <v>185</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>376</v>
+        <v>169</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>323</v>
+        <v>170</v>
       </c>
       <c r="C203" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D203" s="1">
         <v>-1</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>377</v>
+        <v>171</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>378</v>
+        <v>172</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>323</v>
+        <v>161</v>
       </c>
       <c r="C204" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D204" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>379</v>
+        <v>173</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C205" s="1">
+        <v>1</v>
+      </c>
+      <c r="D205" s="1">
+        <v>2</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C206" s="1">
+        <v>1</v>
+      </c>
+      <c r="D206" s="1">
+        <v>2</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C207" s="1">
+        <v>1</v>
+      </c>
+      <c r="D207" s="1">
+        <v>2</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C208" s="1">
+        <v>1</v>
+      </c>
+      <c r="D208" s="1">
+        <v>2</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C209" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D209" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C210" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D210" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C211" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D211" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C212" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D212" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C213" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D213" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C214" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D214" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C215" s="1">
+        <v>2</v>
+      </c>
+      <c r="D215" s="1">
+        <v>3</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C216" s="1">
+        <v>2</v>
+      </c>
+      <c r="D216" s="1">
+        <v>3</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C217" s="1">
+        <v>2</v>
+      </c>
+      <c r="D217" s="1">
+        <v>3</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C218" s="1">
+        <v>2</v>
+      </c>
+      <c r="D218" s="1">
+        <v>3</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C219" s="1">
+        <v>2</v>
+      </c>
+      <c r="D219" s="1">
+        <v>3</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C220" s="1">
+        <v>2</v>
+      </c>
+      <c r="D220" s="1">
+        <v>3</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C221" s="1">
+        <v>2</v>
+      </c>
+      <c r="D221" s="1">
+        <v>3</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C222" s="1">
+        <v>2</v>
+      </c>
+      <c r="D222" s="1">
+        <v>3</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C223" s="1">
+        <v>2</v>
+      </c>
+      <c r="D223" s="1">
+        <v>3</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C224" s="1">
+        <v>2</v>
+      </c>
+      <c r="D224" s="1">
+        <v>3</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C225" s="1">
+        <v>2</v>
+      </c>
+      <c r="D225" s="1">
+        <v>3</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C226" s="1">
+        <v>2</v>
+      </c>
+      <c r="D226" s="1">
+        <v>3</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C227" s="1">
+        <v>2</v>
+      </c>
+      <c r="D227" s="1">
+        <v>3</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C228" s="1">
+        <v>2</v>
+      </c>
+      <c r="D228" s="1">
+        <v>3</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C229" s="1">
+        <v>2</v>
+      </c>
+      <c r="D229" s="1">
+        <v>3</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C230" s="1">
+        <v>2</v>
+      </c>
+      <c r="D230" s="1">
+        <v>3</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C231" s="1">
+        <v>2</v>
+      </c>
+      <c r="D231" s="1">
+        <v>3</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C232" s="1">
+        <v>2</v>
+      </c>
+      <c r="D232" s="1">
+        <v>3</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C233" s="1">
+        <v>2</v>
+      </c>
+      <c r="D233" s="1">
+        <v>3</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C234" s="1">
+        <v>2</v>
+      </c>
+      <c r="D234" s="1">
+        <v>3</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C235" s="1">
+        <v>2</v>
+      </c>
+      <c r="D235" s="1">
+        <v>3</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C236" s="1">
+        <v>2</v>
+      </c>
+      <c r="D236" s="1">
+        <v>3</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C237" s="1">
+        <v>2</v>
+      </c>
+      <c r="D237" s="1">
+        <v>3</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C238" s="1">
+        <v>2</v>
+      </c>
+      <c r="D238" s="1">
+        <v>3</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C239" s="1">
+        <v>2</v>
+      </c>
+      <c r="D239" s="1">
+        <v>3</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C240" s="1">
+        <v>2</v>
+      </c>
+      <c r="D240" s="1">
+        <v>3</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C241" s="1">
+        <v>2</v>
+      </c>
+      <c r="D241" s="1">
+        <v>3</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C242" s="1">
+        <v>2</v>
+      </c>
+      <c r="D242" s="1">
+        <v>3</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C243" s="1">
+        <v>2</v>
+      </c>
+      <c r="D243" s="1">
+        <v>3</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C244" s="1">
+        <v>2</v>
+      </c>
+      <c r="D244" s="1">
+        <v>3</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C245" s="1">
+        <v>2</v>
+      </c>
+      <c r="D245" s="1">
+        <v>3</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C246" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D246" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C247" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D247" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C248" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D248" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C249" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D249" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C250" s="1">
+        <v>1</v>
+      </c>
+      <c r="D250" s="1">
+        <v>1</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C251" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D251" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C252" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D252" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C253" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D253" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C254" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D254" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C255" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D255" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C256" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D256" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C257" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D257" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C258" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D258" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E258" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B205" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C205" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D205" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G205" s="1" t="s">
+      <c r="F258" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G258" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G205">
-    <sortCondition ref="A2:A205"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G258">
+    <sortCondition ref="A2:A258"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Dataset/Index.xlsx
+++ b/Dataset/Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6E1B42-1B76-4AFE-A28A-7338281D80C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578BC99E-63C3-4F90-AD0E-90C22031E053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,16 @@
     <sheet name="INDEX" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="612">
   <si>
     <t>AUSON. epigr.</t>
   </si>
@@ -1778,6 +1783,84 @@
   </si>
   <si>
     <t>In C. Verrem orationes sex</t>
+  </si>
+  <si>
+    <t>AETNA</t>
+  </si>
+  <si>
+    <t>Appendix Vergiliana</t>
+  </si>
+  <si>
+    <t>Aetna</t>
+  </si>
+  <si>
+    <t>VERG. catal.</t>
+  </si>
+  <si>
+    <t>Carmina κατὰ λεπτόν</t>
+  </si>
+  <si>
+    <t>CIRIS</t>
+  </si>
+  <si>
+    <t>Ciris</t>
+  </si>
+  <si>
+    <t>CULEX</t>
+  </si>
+  <si>
+    <t>Culex</t>
+  </si>
+  <si>
+    <t>DIRAE</t>
+  </si>
+  <si>
+    <t>Dirae</t>
+  </si>
+  <si>
+    <t>ELEG. in Maecen.</t>
+  </si>
+  <si>
+    <t>Elegiae in Maecenatem</t>
+  </si>
+  <si>
+    <t>LYDIA</t>
+  </si>
+  <si>
+    <t>Lydia</t>
+  </si>
+  <si>
+    <t>MORET.</t>
+  </si>
+  <si>
+    <t>Moretum</t>
+  </si>
+  <si>
+    <t>PRIAP. 83 Bue.</t>
+  </si>
+  <si>
+    <t>Quid hoc novi est (= Priapea 83 Buecheler)</t>
+  </si>
+  <si>
+    <t>ANTH. 646 Ri.</t>
+  </si>
+  <si>
+    <t>De rosis nascentibus (= Anthologia Latina, carm. 646 Riese)</t>
+  </si>
+  <si>
+    <t>AUSON. ecl. 4 Peip.</t>
+  </si>
+  <si>
+    <t>De est et non (= D. Magnus Ausonius Burdigalensis, Eclogarum liber 4 Peiper)</t>
+  </si>
+  <si>
+    <t>AUSON. ecl. 3 Peip.</t>
+  </si>
+  <si>
+    <t>De institutione viri boni (= D. Magnus Ausonius Burdigalensis, Eclogarum liber 3 Peiper)</t>
+  </si>
+  <si>
+    <t>PRIAP. 84-86 Bue.</t>
   </si>
 </sst>
 </file>
@@ -2138,7 +2221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G258"/>
+  <dimension ref="A1:G271"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2227,134 +2310,134 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>586</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>587</v>
       </c>
       <c r="C4" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D4" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>51</v>
+        <v>588</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D5" s="1">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>408</v>
+        <v>605</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>409</v>
+        <v>587</v>
       </c>
       <c r="C7" s="1">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>410</v>
+        <v>606</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="D8" s="1">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>408</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>409</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D9" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>68</v>
+        <v>410</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>13</v>
@@ -2365,7 +2448,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>46</v>
@@ -2377,18 +2460,18 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>46</v>
@@ -2400,7 +2483,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>13</v>
@@ -2411,7 +2494,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>46</v>
@@ -2423,18 +2506,18 @@
         <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>46</v>
@@ -2446,7 +2529,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>13</v>
@@ -2457,145 +2540,145 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D16" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D17" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
       </c>
       <c r="D18" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
       </c>
       <c r="D19" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1</v>
@@ -2607,7 +2690,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>3</v>
@@ -2618,7 +2701,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>1</v>
@@ -2630,7 +2713,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>3</v>
@@ -2641,7 +2724,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>1</v>
@@ -2653,7 +2736,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>3</v>
@@ -2664,7 +2747,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -2676,7 +2759,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>3</v>
@@ -2687,19 +2770,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>9</v>
+        <v>609</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1</v>
+        <v>587</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
       </c>
       <c r="D24" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>3</v>
@@ -2710,19 +2793,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>607</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1</v>
+        <v>587</v>
       </c>
       <c r="C25" s="1">
         <v>4</v>
       </c>
       <c r="D25" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>24</v>
+        <v>608</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>3</v>
@@ -2733,7 +2816,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>1</v>
@@ -2745,7 +2828,7 @@
         <v>4</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>3</v>
@@ -2756,7 +2839,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1</v>
@@ -2768,18 +2851,18 @@
         <v>4</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>1</v>
@@ -2791,7 +2874,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>3</v>
@@ -2802,7 +2885,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>1</v>
@@ -2814,7 +2897,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>3</v>
@@ -2825,7 +2908,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>1</v>
@@ -2837,7 +2920,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>3</v>
@@ -2848,7 +2931,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>1</v>
@@ -2860,18 +2943,18 @@
         <v>4</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>1</v>
@@ -2883,7 +2966,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>3</v>
@@ -2894,7 +2977,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>1</v>
@@ -2906,7 +2989,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>3</v>
@@ -2917,7 +3000,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>1</v>
@@ -2929,7 +3012,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>3</v>
@@ -2940,7 +3023,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>153</v>
+        <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>1</v>
@@ -2952,7 +3035,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>154</v>
+        <v>6</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>3</v>
@@ -2963,88 +3046,88 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="C36" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D36" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D37" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="C38" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D38" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>482</v>
+        <v>153</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>512</v>
+        <v>1</v>
       </c>
       <c r="C39" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D39" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>483</v>
+        <v>154</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>3</v>
@@ -3055,33 +3138,33 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C40" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D40" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C41" s="1">
         <v>-1</v>
@@ -3090,7 +3173,7 @@
         <v>-1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>13</v>
@@ -3101,10 +3184,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C42" s="1">
         <v>-1</v>
@@ -3113,7 +3196,7 @@
         <v>-1</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>13</v>
@@ -3124,10 +3207,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -3136,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -3147,168 +3230,168 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="C44" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D44" s="1">
         <v>-2</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>512</v>
+        <v>135</v>
       </c>
       <c r="C45" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D45" s="1">
         <v>-1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>411</v>
+        <v>136</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C46" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D46" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>125</v>
+        <v>494</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>113</v>
+        <v>495</v>
       </c>
       <c r="C47" s="1">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D47" s="1">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>126</v>
+        <v>496</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C48" s="1">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D48" s="1">
         <v>-2</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>113</v>
+        <v>512</v>
       </c>
       <c r="C49" s="1">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D49" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>132</v>
+        <v>411</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C50" s="1">
         <v>-3</v>
       </c>
       <c r="D50" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>113</v>
@@ -3320,76 +3403,76 @@
         <v>-2</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C52" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D52" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>4</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C53" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D53" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>4</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>514</v>
+        <v>117</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C54" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D54" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>515</v>
+        <v>118</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>13</v>
@@ -3400,53 +3483,53 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>516</v>
+        <v>112</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C55" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D55" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>517</v>
+        <v>114</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>518</v>
+        <v>109</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C56" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D56" s="1">
         <v>-1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>519</v>
+        <v>111</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>520</v>
+        <v>115</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>105</v>
@@ -3458,18 +3541,18 @@
         <v>-1</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>521</v>
+        <v>116</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>104</v>
+        <v>514</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>105</v>
@@ -3481,18 +3564,18 @@
         <v>-1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>106</v>
+        <v>515</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>105</v>
@@ -3504,7 +3587,7 @@
         <v>-1</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>13</v>
@@ -3515,7 +3598,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>105</v>
@@ -3527,7 +3610,7 @@
         <v>-1</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>13</v>
@@ -3538,7 +3621,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>105</v>
@@ -3550,7 +3633,7 @@
         <v>-1</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>13</v>
@@ -3561,7 +3644,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>528</v>
+        <v>104</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>105</v>
@@ -3573,18 +3656,18 @@
         <v>-1</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>529</v>
+        <v>106</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>105</v>
@@ -3596,7 +3679,7 @@
         <v>-1</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>13</v>
@@ -3607,7 +3690,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>105</v>
@@ -3619,7 +3702,7 @@
         <v>-1</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>13</v>
@@ -3630,7 +3713,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>105</v>
@@ -3642,7 +3725,7 @@
         <v>-1</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>13</v>
@@ -3653,7 +3736,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>105</v>
@@ -3665,7 +3748,7 @@
         <v>-1</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>13</v>
@@ -3676,7 +3759,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>105</v>
@@ -3688,7 +3771,7 @@
         <v>-1</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>13</v>
@@ -3699,7 +3782,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>105</v>
@@ -3711,7 +3794,7 @@
         <v>-1</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>13</v>
@@ -3722,7 +3805,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>105</v>
@@ -3734,7 +3817,7 @@
         <v>-1</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>13</v>
@@ -3745,7 +3828,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>105</v>
@@ -3757,7 +3840,7 @@
         <v>-1</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>13</v>
@@ -3768,7 +3851,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>105</v>
@@ -3780,7 +3863,7 @@
         <v>-1</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>13</v>
@@ -3791,7 +3874,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>105</v>
@@ -3803,7 +3886,7 @@
         <v>-1</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>13</v>
@@ -3814,7 +3897,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>105</v>
@@ -3826,7 +3909,7 @@
         <v>-1</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>13</v>
@@ -3837,7 +3920,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>105</v>
@@ -3849,7 +3932,7 @@
         <v>-1</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>13</v>
@@ -3860,7 +3943,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>105</v>
@@ -3872,7 +3955,7 @@
         <v>-1</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>13</v>
@@ -3883,7 +3966,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>105</v>
@@ -3895,7 +3978,7 @@
         <v>-1</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>13</v>
@@ -3906,7 +3989,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>105</v>
@@ -3918,7 +4001,7 @@
         <v>-1</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>13</v>
@@ -3929,7 +4012,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>105</v>
@@ -3941,7 +4024,7 @@
         <v>-1</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>13</v>
@@ -3952,7 +4035,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>105</v>
@@ -3964,7 +4047,7 @@
         <v>-1</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>13</v>
@@ -3975,7 +4058,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>105</v>
@@ -3987,7 +4070,7 @@
         <v>-1</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>13</v>
@@ -3998,7 +4081,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>105</v>
@@ -4010,7 +4093,7 @@
         <v>-1</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>13</v>
@@ -4021,7 +4104,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>105</v>
@@ -4033,7 +4116,7 @@
         <v>-1</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>13</v>
@@ -4044,7 +4127,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>105</v>
@@ -4056,7 +4139,7 @@
         <v>-1</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>13</v>
@@ -4067,7 +4150,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>105</v>
@@ -4079,7 +4162,7 @@
         <v>-1</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>13</v>
@@ -4090,7 +4173,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>105</v>
@@ -4102,7 +4185,7 @@
         <v>-1</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>13</v>
@@ -4113,7 +4196,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>105</v>
@@ -4125,7 +4208,7 @@
         <v>-1</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>13</v>
@@ -4136,7 +4219,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>105</v>
@@ -4148,7 +4231,7 @@
         <v>-1</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>13</v>
@@ -4159,7 +4242,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>105</v>
@@ -4171,7 +4254,7 @@
         <v>-1</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>13</v>
@@ -4182,7 +4265,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>105</v>
@@ -4194,7 +4277,7 @@
         <v>-1</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>13</v>
@@ -4205,7 +4288,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>105</v>
@@ -4217,7 +4300,7 @@
         <v>-1</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>13</v>
@@ -4228,111 +4311,111 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>102</v>
+        <v>578</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C91" s="1">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D91" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>103</v>
+        <v>579</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C92" s="1">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D92" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>81</v>
+        <v>581</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>82</v>
+        <v>582</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C93" s="1">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D93" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>83</v>
+        <v>583</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>84</v>
+        <v>584</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C94" s="1">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D94" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>85</v>
+        <v>585</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>86</v>
+        <v>591</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>78</v>
+        <v>587</v>
       </c>
       <c r="C95" s="1">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D95" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>87</v>
+        <v>592</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>3</v>
@@ -4343,7 +4426,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>78</v>
@@ -4355,7 +4438,7 @@
         <v>5</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>3</v>
@@ -4366,7 +4449,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>78</v>
@@ -4378,7 +4461,7 @@
         <v>5</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>3</v>
@@ -4389,7 +4472,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>78</v>
@@ -4401,7 +4484,7 @@
         <v>5</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>3</v>
@@ -4412,7 +4495,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>78</v>
@@ -4424,7 +4507,7 @@
         <v>5</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>3</v>
@@ -4435,7 +4518,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>78</v>
@@ -4447,7 +4530,7 @@
         <v>5</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>3</v>
@@ -4458,7 +4541,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>78</v>
@@ -4470,7 +4553,7 @@
         <v>5</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>3</v>
@@ -4481,7 +4564,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>78</v>
@@ -4493,7 +4576,7 @@
         <v>5</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>3</v>
@@ -4504,7 +4587,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>78</v>
@@ -4516,7 +4599,7 @@
         <v>5</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>3</v>
@@ -4527,7 +4610,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>78</v>
@@ -4539,7 +4622,7 @@
         <v>5</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>3</v>
@@ -4550,7 +4633,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>248</v>
+        <v>98</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>78</v>
@@ -4562,7 +4645,7 @@
         <v>5</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>249</v>
+        <v>99</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>3</v>
@@ -4573,65 +4656,65 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>237</v>
+        <v>107</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>238</v>
+        <v>78</v>
       </c>
       <c r="C106" s="1">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="D106" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>457</v>
+        <v>88</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>238</v>
+        <v>78</v>
       </c>
       <c r="C107" s="1">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="D107" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>458</v>
+        <v>89</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>245</v>
+        <v>94</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="C108" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D108" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>247</v>
+        <v>95</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>3</v>
@@ -4642,19 +4725,19 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>241</v>
+        <v>78</v>
       </c>
       <c r="C109" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D109" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>3</v>
@@ -4665,19 +4748,19 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="C110" s="1">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="D110" s="1">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>121</v>
+        <v>249</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>3</v>
@@ -4688,88 +4771,88 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C111" s="1">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D111" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>257</v>
+        <v>457</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C112" s="1">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D112" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>258</v>
+        <v>458</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C113" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D113" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>252</v>
+        <v>593</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>244</v>
+        <v>587</v>
       </c>
       <c r="C114" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D114" s="1">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>253</v>
+        <v>594</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>3</v>
@@ -4780,42 +4863,42 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>323</v>
+        <v>595</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>324</v>
+        <v>587</v>
       </c>
       <c r="C115" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D115" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>325</v>
+        <v>596</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>513</v>
+        <v>241</v>
       </c>
       <c r="C116" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D116" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>501</v>
+        <v>242</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>3</v>
@@ -4826,19 +4909,19 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>484</v>
+        <v>597</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>485</v>
+        <v>587</v>
       </c>
       <c r="C117" s="1">
         <v>-1</v>
       </c>
       <c r="D117" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>486</v>
+        <v>598</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>3</v>
@@ -4849,19 +4932,19 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>489</v>
+        <v>243</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>485</v>
+        <v>244</v>
       </c>
       <c r="C118" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D118" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>3</v>
@@ -4872,19 +4955,19 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>487</v>
+        <v>261</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>485</v>
+        <v>244</v>
       </c>
       <c r="C119" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D119" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>488</v>
+        <v>262</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>3</v>
@@ -4895,19 +4978,19 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>492</v>
+        <v>257</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>485</v>
+        <v>244</v>
       </c>
       <c r="C120" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D120" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>3</v>
@@ -4918,125 +5001,125 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>490</v>
+        <v>259</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>485</v>
+        <v>244</v>
       </c>
       <c r="C121" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D121" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>491</v>
+        <v>260</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>493</v>
+        <v>252</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>485</v>
+        <v>244</v>
       </c>
       <c r="C122" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D122" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>255</v>
+        <v>324</v>
       </c>
       <c r="C123" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D123" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>256</v>
+        <v>325</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>251</v>
+        <v>513</v>
       </c>
       <c r="C124" s="1">
         <v>1</v>
       </c>
       <c r="D124" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>208</v>
+        <v>501</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>209</v>
+        <v>484</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>210</v>
+        <v>485</v>
       </c>
       <c r="C125" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D125" s="1">
         <v>-1</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>211</v>
+        <v>486</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>326</v>
+        <v>489</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>327</v>
+        <v>485</v>
       </c>
       <c r="C126" s="1">
         <v>-1</v>
@@ -5045,7 +5128,7 @@
         <v>-1</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>247</v>
+        <v>111</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>3</v>
@@ -5056,42 +5139,42 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>328</v>
+        <v>487</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>329</v>
+        <v>485</v>
       </c>
       <c r="C127" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D127" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>43</v>
+        <v>488</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>467</v>
+        <v>492</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>329</v>
+        <v>485</v>
       </c>
       <c r="C128" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D128" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>57</v>
+        <v>231</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>3</v>
@@ -5102,19 +5185,19 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>216</v>
+        <v>490</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>217</v>
+        <v>485</v>
       </c>
       <c r="C129" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D129" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>218</v>
+        <v>491</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>3</v>
@@ -5125,19 +5208,19 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>330</v>
+        <v>493</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>331</v>
+        <v>485</v>
       </c>
       <c r="C130" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D130" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>3</v>
@@ -5148,19 +5231,19 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>332</v>
+        <v>254</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>333</v>
+        <v>255</v>
       </c>
       <c r="C131" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D131" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>334</v>
+        <v>256</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>3</v>
@@ -5171,65 +5254,65 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="C132" s="1">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D132" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>337</v>
+        <v>208</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C133" s="1">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="D133" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>111</v>
+        <v>211</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>212</v>
+        <v>326</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>213</v>
+        <v>327</v>
       </c>
       <c r="C134" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D134" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>3</v>
@@ -5240,134 +5323,134 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>235</v>
+        <v>328</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="C135" s="1">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="D135" s="1">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>236</v>
+        <v>43</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>225</v>
+        <v>467</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="C136" s="1">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="D136" s="1">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>226</v>
+        <v>57</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C137" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D137" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C138" s="1">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D138" s="1">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C139" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D139" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>43</v>
+        <v>334</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>342</v>
+        <v>599</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>339</v>
+        <v>587</v>
       </c>
       <c r="C140" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D140" s="1">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>57</v>
+        <v>600</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>3</v>
@@ -5378,42 +5461,42 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>504</v>
+        <v>335</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>505</v>
+        <v>336</v>
       </c>
       <c r="C141" s="1">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="D141" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>506</v>
+        <v>337</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>507</v>
+        <v>215</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>505</v>
+        <v>213</v>
       </c>
       <c r="C142" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D142" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>508</v>
+        <v>111</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>3</v>
@@ -5424,111 +5507,111 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="C143" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D143" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>343</v>
+        <v>235</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>344</v>
+        <v>213</v>
       </c>
       <c r="C144" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D144" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>345</v>
+        <v>236</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>346</v>
+        <v>225</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>347</v>
+        <v>213</v>
       </c>
       <c r="C145" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D145" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>348</v>
+        <v>226</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>455</v>
+        <v>227</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C146" s="1">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="D146" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>456</v>
+        <v>229</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>349</v>
+        <v>601</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>350</v>
+        <v>587</v>
       </c>
       <c r="C147" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D147" s="1">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>57</v>
+        <v>602</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>3</v>
@@ -5539,180 +5622,180 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>206</v>
+        <v>338</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>207</v>
+        <v>339</v>
       </c>
       <c r="C148" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="D148" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>208</v>
+        <v>340</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>222</v>
+        <v>341</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>223</v>
+        <v>339</v>
       </c>
       <c r="C149" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="D149" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>224</v>
+        <v>43</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>497</v>
+        <v>342</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>498</v>
+        <v>339</v>
       </c>
       <c r="C150" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D150" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>499</v>
+        <v>57</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>415</v>
+        <v>504</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>413</v>
+        <v>505</v>
       </c>
       <c r="C151" s="1">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="D151" s="1">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>416</v>
+        <v>506</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>417</v>
+        <v>507</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>413</v>
+        <v>505</v>
       </c>
       <c r="C152" s="1">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="D152" s="1">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>418</v>
+        <v>508</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>419</v>
+        <v>232</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>413</v>
+        <v>233</v>
       </c>
       <c r="C153" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D153" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>420</v>
+        <v>234</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>421</v>
+        <v>343</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>413</v>
+        <v>344</v>
       </c>
       <c r="C154" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D154" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>422</v>
+        <v>345</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>423</v>
+        <v>346</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>413</v>
+        <v>347</v>
       </c>
       <c r="C155" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D155" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>424</v>
+        <v>348</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>3</v>
@@ -5723,33 +5806,33 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>413</v>
+        <v>238</v>
       </c>
       <c r="C156" s="1">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D156" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>427</v>
+        <v>349</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>413</v>
+        <v>350</v>
       </c>
       <c r="C157" s="1">
         <v>-3</v>
@@ -5758,30 +5841,30 @@
         <v>-2</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>428</v>
+        <v>57</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>429</v>
+        <v>206</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>413</v>
+        <v>207</v>
       </c>
       <c r="C158" s="1">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D158" s="1">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>430</v>
+        <v>208</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>3</v>
@@ -5792,42 +5875,42 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>431</v>
+        <v>222</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>413</v>
+        <v>223</v>
       </c>
       <c r="C159" s="1">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D159" s="1">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>432</v>
+        <v>224</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>433</v>
+        <v>497</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>413</v>
+        <v>498</v>
       </c>
       <c r="C160" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D160" s="1">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>434</v>
+        <v>499</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>3</v>
@@ -5838,7 +5921,7 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>413</v>
@@ -5850,7 +5933,7 @@
         <v>-2</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>3</v>
@@ -5861,7 +5944,7 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>413</v>
@@ -5873,7 +5956,7 @@
         <v>-2</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>3</v>
@@ -5884,7 +5967,7 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>413</v>
@@ -5896,7 +5979,7 @@
         <v>-2</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>3</v>
@@ -5907,7 +5990,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>413</v>
@@ -5919,7 +6002,7 @@
         <v>-2</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>3</v>
@@ -5930,7 +6013,7 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>413</v>
@@ -5942,7 +6025,7 @@
         <v>-2</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>3</v>
@@ -5953,7 +6036,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>413</v>
@@ -5965,7 +6048,7 @@
         <v>-2</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>3</v>
@@ -5976,7 +6059,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>413</v>
@@ -5988,7 +6071,7 @@
         <v>-2</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>3</v>
@@ -5999,7 +6082,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>413</v>
@@ -6011,7 +6094,7 @@
         <v>-2</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>3</v>
@@ -6022,7 +6105,7 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>413</v>
@@ -6034,7 +6117,7 @@
         <v>-2</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>3</v>
@@ -6045,7 +6128,7 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>413</v>
@@ -6057,7 +6140,7 @@
         <v>-2</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>3</v>
@@ -6068,7 +6151,7 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>413</v>
@@ -6080,7 +6163,7 @@
         <v>-2</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>3</v>
@@ -6091,157 +6174,157 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>230</v>
+        <v>437</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>220</v>
+        <v>413</v>
       </c>
       <c r="C172" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="D172" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>231</v>
+        <v>438</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>219</v>
+        <v>439</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>220</v>
+        <v>413</v>
       </c>
       <c r="C173" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="D173" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>221</v>
+        <v>440</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>480</v>
+        <v>413</v>
       </c>
       <c r="C174" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D174" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>162</v>
+        <v>442</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>479</v>
+        <v>443</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>480</v>
+        <v>413</v>
       </c>
       <c r="C175" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D175" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>118</v>
+        <v>444</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>475</v>
+        <v>413</v>
       </c>
       <c r="C176" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D176" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>475</v>
+        <v>413</v>
       </c>
       <c r="C177" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D177" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>351</v>
+        <v>449</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>352</v>
+        <v>413</v>
       </c>
       <c r="C178" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D178" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>353</v>
+        <v>450</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>3</v>
@@ -6252,19 +6335,19 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>502</v>
+        <v>451</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>512</v>
+        <v>413</v>
       </c>
       <c r="C179" s="1">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="D179" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>503</v>
+        <v>452</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>3</v>
@@ -6275,226 +6358,226 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>472</v>
+        <v>413</v>
       </c>
       <c r="C180" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D180" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>188</v>
+        <v>412</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>179</v>
+        <v>413</v>
       </c>
       <c r="C181" s="1">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="D181" s="1">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>189</v>
+        <v>414</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="C182" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D182" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="C183" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D183" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>202</v>
+        <v>481</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>179</v>
+        <v>480</v>
       </c>
       <c r="C184" s="1">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D184" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>200</v>
+        <v>479</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>179</v>
+        <v>480</v>
       </c>
       <c r="C185" s="1">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D185" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>204</v>
+        <v>477</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>179</v>
+        <v>475</v>
       </c>
       <c r="C186" s="1">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D186" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>205</v>
+        <v>478</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>181</v>
+        <v>474</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>179</v>
+        <v>475</v>
       </c>
       <c r="C187" s="1">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D187" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>182</v>
+        <v>476</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>192</v>
+        <v>351</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>179</v>
+        <v>352</v>
       </c>
       <c r="C188" s="1">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D188" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>473</v>
+        <v>353</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>354</v>
+        <v>502</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>355</v>
+        <v>512</v>
       </c>
       <c r="C189" s="1">
         <v>-1</v>
       </c>
       <c r="D189" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>356</v>
+        <v>503</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>3</v>
@@ -6505,19 +6588,19 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>357</v>
+        <v>603</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>355</v>
+        <v>587</v>
       </c>
       <c r="C190" s="1">
         <v>-1</v>
       </c>
       <c r="D190" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>358</v>
+        <v>604</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>3</v>
@@ -6528,286 +6611,286 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>359</v>
+        <v>611</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>360</v>
+        <v>587</v>
       </c>
       <c r="C191" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D191" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>361</v>
+        <v>503</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>362</v>
+        <v>471</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>363</v>
+        <v>472</v>
       </c>
       <c r="C192" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D192" s="1">
         <v>-1</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>121</v>
+        <v>470</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>509</v>
+        <v>188</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>510</v>
+        <v>179</v>
       </c>
       <c r="C193" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D193" s="1">
         <v>5</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>511</v>
+        <v>189</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>381</v>
+        <v>186</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>382</v>
+        <v>179</v>
       </c>
       <c r="C194" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D194" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>383</v>
+        <v>187</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>386</v>
+        <v>178</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>382</v>
+        <v>179</v>
       </c>
       <c r="C195" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D195" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>387</v>
+        <v>180</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>384</v>
+        <v>202</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>382</v>
+        <v>179</v>
       </c>
       <c r="C196" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D196" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>385</v>
+        <v>203</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="C197" s="1">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="D197" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C198" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D198" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>364</v>
+        <v>181</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>365</v>
+        <v>179</v>
       </c>
       <c r="C199" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D199" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C200" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D200" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>197</v>
+        <v>473</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>190</v>
+        <v>354</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>184</v>
+        <v>355</v>
       </c>
       <c r="C201" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D201" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>191</v>
+        <v>356</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>183</v>
+        <v>357</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>184</v>
+        <v>355</v>
       </c>
       <c r="C202" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D202" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>185</v>
+        <v>358</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>169</v>
+        <v>359</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>170</v>
+        <v>360</v>
       </c>
       <c r="C203" s="1">
         <v>-2</v>
@@ -6816,30 +6899,30 @@
         <v>-1</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>171</v>
+        <v>361</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>172</v>
+        <v>362</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>161</v>
+        <v>363</v>
       </c>
       <c r="C204" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D204" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>13</v>
@@ -6850,88 +6933,88 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>174</v>
+        <v>509</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>161</v>
+        <v>510</v>
       </c>
       <c r="C205" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D205" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>175</v>
+        <v>511</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>167</v>
+        <v>381</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>161</v>
+        <v>382</v>
       </c>
       <c r="C206" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D206" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>168</v>
+        <v>383</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>165</v>
+        <v>386</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>161</v>
+        <v>382</v>
       </c>
       <c r="C207" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D207" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>166</v>
+        <v>387</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>160</v>
+        <v>384</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>161</v>
+        <v>382</v>
       </c>
       <c r="C208" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D208" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>162</v>
+        <v>385</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>13</v>
@@ -6942,421 +7025,421 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>388</v>
+        <v>198</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>389</v>
+        <v>199</v>
       </c>
       <c r="C209" s="1">
         <v>-2</v>
       </c>
       <c r="D209" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>390</v>
+        <v>118</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>391</v>
+        <v>193</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>389</v>
+        <v>194</v>
       </c>
       <c r="C210" s="1">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D210" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>392</v>
+        <v>195</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="C211" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D211" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>394</v>
+        <v>162</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>395</v>
+        <v>196</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>389</v>
+        <v>184</v>
       </c>
       <c r="C212" s="1">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D212" s="1">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>396</v>
+        <v>197</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>397</v>
+        <v>190</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>389</v>
+        <v>184</v>
       </c>
       <c r="C213" s="1">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D213" s="1">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>398</v>
+        <v>191</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>399</v>
+        <v>183</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>389</v>
+        <v>184</v>
       </c>
       <c r="C214" s="1">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D214" s="1">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>400</v>
+        <v>185</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C215" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D215" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C216" s="1">
+        <v>1</v>
+      </c>
+      <c r="D216" s="1">
         <v>2</v>
       </c>
-      <c r="D216" s="1">
-        <v>3</v>
-      </c>
       <c r="E216" s="1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C217" s="1">
+        <v>1</v>
+      </c>
+      <c r="D217" s="1">
         <v>2</v>
       </c>
-      <c r="D217" s="1">
-        <v>3</v>
-      </c>
       <c r="E217" s="1" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C218" s="1">
+        <v>1</v>
+      </c>
+      <c r="D218" s="1">
         <v>2</v>
       </c>
-      <c r="D218" s="1">
-        <v>3</v>
-      </c>
       <c r="E218" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>312</v>
+        <v>165</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C219" s="1">
+        <v>1</v>
+      </c>
+      <c r="D219" s="1">
         <v>2</v>
       </c>
-      <c r="D219" s="1">
-        <v>3</v>
-      </c>
       <c r="E219" s="1" t="s">
-        <v>313</v>
+        <v>166</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>314</v>
+        <v>160</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C220" s="1">
+        <v>1</v>
+      </c>
+      <c r="D220" s="1">
         <v>2</v>
       </c>
-      <c r="D220" s="1">
-        <v>3</v>
-      </c>
       <c r="E220" s="1" t="s">
-        <v>315</v>
+        <v>162</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>310</v>
+        <v>388</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>156</v>
+        <v>389</v>
       </c>
       <c r="C221" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D221" s="1">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>311</v>
+        <v>390</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>300</v>
+        <v>391</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>156</v>
+        <v>389</v>
       </c>
       <c r="C222" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D222" s="1">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>301</v>
+        <v>392</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>304</v>
+        <v>393</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>156</v>
+        <v>389</v>
       </c>
       <c r="C223" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D223" s="1">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>305</v>
+        <v>394</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>306</v>
+        <v>395</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>156</v>
+        <v>389</v>
       </c>
       <c r="C224" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D224" s="1">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>307</v>
+        <v>396</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>302</v>
+        <v>397</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>156</v>
+        <v>389</v>
       </c>
       <c r="C225" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D225" s="1">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>303</v>
+        <v>398</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>316</v>
+        <v>399</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>156</v>
+        <v>389</v>
       </c>
       <c r="C226" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D226" s="1">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>317</v>
+        <v>400</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>308</v>
+        <v>155</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>156</v>
@@ -7368,7 +7451,7 @@
         <v>3</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>309</v>
+        <v>157</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>13</v>
@@ -7379,7 +7462,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>318</v>
+        <v>163</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>156</v>
@@ -7391,7 +7474,7 @@
         <v>3</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>319</v>
+        <v>164</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>13</v>
@@ -7402,7 +7485,7 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>290</v>
+        <v>158</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>156</v>
@@ -7414,7 +7497,7 @@
         <v>3</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>291</v>
+        <v>159</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>13</v>
@@ -7425,7 +7508,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>294</v>
+        <v>176</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>156</v>
@@ -7437,7 +7520,7 @@
         <v>3</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>295</v>
+        <v>177</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>13</v>
@@ -7448,7 +7531,7 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>156</v>
@@ -7460,7 +7543,7 @@
         <v>3</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>13</v>
@@ -7471,7 +7554,7 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>156</v>
@@ -7483,7 +7566,7 @@
         <v>3</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>13</v>
@@ -7494,7 +7577,7 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>156</v>
@@ -7506,7 +7589,7 @@
         <v>3</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>13</v>
@@ -7517,7 +7600,7 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>156</v>
@@ -7529,7 +7612,7 @@
         <v>3</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>13</v>
@@ -7540,7 +7623,7 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>156</v>
@@ -7552,7 +7635,7 @@
         <v>3</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>13</v>
@@ -7563,7 +7646,7 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>156</v>
@@ -7575,7 +7658,7 @@
         <v>3</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>13</v>
@@ -7586,7 +7669,7 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>156</v>
@@ -7598,7 +7681,7 @@
         <v>3</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>13</v>
@@ -7609,7 +7692,7 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>156</v>
@@ -7621,7 +7704,7 @@
         <v>3</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>13</v>
@@ -7632,7 +7715,7 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>156</v>
@@ -7644,7 +7727,7 @@
         <v>3</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>13</v>
@@ -7655,7 +7738,7 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>156</v>
@@ -7667,7 +7750,7 @@
         <v>3</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>13</v>
@@ -7678,7 +7761,7 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>156</v>
@@ -7690,7 +7773,7 @@
         <v>3</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>13</v>
@@ -7701,7 +7784,7 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>156</v>
@@ -7713,7 +7796,7 @@
         <v>3</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>13</v>
@@ -7724,7 +7807,7 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>156</v>
@@ -7736,7 +7819,7 @@
         <v>3</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>13</v>
@@ -7747,7 +7830,7 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>156</v>
@@ -7759,7 +7842,7 @@
         <v>3</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>13</v>
@@ -7770,7 +7853,7 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>156</v>
@@ -7782,7 +7865,7 @@
         <v>3</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>13</v>
@@ -7793,306 +7876,605 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>468</v>
+        <v>282</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>469</v>
+        <v>156</v>
       </c>
       <c r="C246" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D246" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>470</v>
+        <v>283</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
-        <v>378</v>
+        <v>286</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>379</v>
+        <v>156</v>
       </c>
       <c r="C247" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D247" s="1">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>380</v>
+        <v>287</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>459</v>
+        <v>280</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>238</v>
+        <v>156</v>
       </c>
       <c r="C248" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D248" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>460</v>
+        <v>281</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>366</v>
+        <v>284</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>367</v>
+        <v>156</v>
       </c>
       <c r="C249" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D249" s="1">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>368</v>
+        <v>285</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>272</v>
+        <v>156</v>
       </c>
       <c r="C250" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D250" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>369</v>
+        <v>276</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>370</v>
+        <v>156</v>
       </c>
       <c r="C251" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D251" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>461</v>
+        <v>274</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>372</v>
+        <v>156</v>
       </c>
       <c r="C252" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D252" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>462</v>
+        <v>275</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
-        <v>463</v>
+        <v>278</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>372</v>
+        <v>156</v>
       </c>
       <c r="C253" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D253" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>464</v>
+        <v>279</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>371</v>
+        <v>263</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>372</v>
+        <v>156</v>
       </c>
       <c r="C254" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D254" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>373</v>
+        <v>264</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
-        <v>465</v>
+        <v>267</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>372</v>
+        <v>156</v>
       </c>
       <c r="C255" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D255" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>466</v>
+        <v>268</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>374</v>
+        <v>265</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>321</v>
+        <v>156</v>
       </c>
       <c r="C256" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D256" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>375</v>
+        <v>266</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
-        <v>376</v>
+        <v>269</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>321</v>
+        <v>156</v>
       </c>
       <c r="C257" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D257" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>377</v>
+        <v>270</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C258" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D258" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C259" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D259" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C260" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D260" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C261" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D261" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C262" s="1">
+        <v>1</v>
+      </c>
+      <c r="D262" s="1">
+        <v>1</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C263" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D263" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C264" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D264" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C265" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D265" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C266" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D266" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C267" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D267" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C268" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D268" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C269" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D269" s="1">
+        <v>1</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C270" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D270" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="B271" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C258" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D258" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E258" s="1" t="s">
+      <c r="C271" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D271" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E271" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="F258" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G258" s="1" t="s">
+      <c r="F271" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G271" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G258">
-    <sortCondition ref="A2:A258"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G271">
+    <sortCondition ref="A2:A271"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
